--- a/Jogos_do_Dia/2023-07-14_FutPythonTrader_Jogos_do_Dia.xlsx
+++ b/Jogos_do_Dia/2023-07-14_FutPythonTrader_Jogos_do_Dia.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="149">
   <si>
     <t>League</t>
   </si>
@@ -154,27 +154,30 @@
     <t>Colombia Categoria Primera A</t>
   </si>
   <si>
+    <t>Argentina Prim B Nacional</t>
+  </si>
+  <si>
+    <t>Argentina Primera División</t>
+  </si>
+  <si>
     <t>Brazil Serie B</t>
   </si>
   <si>
+    <t>Chile Primera B</t>
+  </si>
+  <si>
     <t>Venezuela Primera División</t>
   </si>
   <si>
-    <t>Chile Primera B</t>
-  </si>
-  <si>
-    <t>Argentina Primera División</t>
-  </si>
-  <si>
-    <t>Argentina Prim B Nacional</t>
-  </si>
-  <si>
     <t>Uruguay Primera División</t>
   </si>
   <si>
     <t>Canada Canadian Premier League</t>
   </si>
   <si>
+    <t>USA USL Championship</t>
+  </si>
+  <si>
     <t>00:00:00</t>
   </si>
   <si>
@@ -220,6 +223,24 @@
     <t>21:00:00</t>
   </si>
   <si>
+    <t>21:10:00</t>
+  </si>
+  <si>
+    <t>21:15:00</t>
+  </si>
+  <si>
+    <t>21:30:00</t>
+  </si>
+  <si>
+    <t>21:40:00</t>
+  </si>
+  <si>
+    <t>22:00:00</t>
+  </si>
+  <si>
+    <t>23:00:00</t>
+  </si>
+  <si>
     <t>Guadalajara</t>
   </si>
   <si>
@@ -232,24 +253,24 @@
     <t>Öster</t>
   </si>
   <si>
+    <t>Aswan FC</t>
+  </si>
+  <si>
+    <t>Haras El Hodood</t>
+  </si>
+  <si>
     <t>National Bank of Egypt</t>
   </si>
   <si>
     <t>Pyramids FC</t>
   </si>
   <si>
-    <t>Aswan FC</t>
-  </si>
-  <si>
-    <t>Haras El Hodood</t>
+    <t>Progreso</t>
   </si>
   <si>
     <t>Levski Krumovgrad</t>
   </si>
   <si>
-    <t>Progreso</t>
-  </si>
-  <si>
     <t>Rapid Bucureşti</t>
   </si>
   <si>
@@ -271,27 +292,27 @@
     <t>Envigado</t>
   </si>
   <si>
+    <t>Nueva Chicago</t>
+  </si>
+  <si>
+    <t>Godoy Cruz</t>
+  </si>
+  <si>
+    <t>CRB</t>
+  </si>
+  <si>
+    <t>Univ. Concepción</t>
+  </si>
+  <si>
+    <t>Hermanos Colmenares</t>
+  </si>
+  <si>
+    <t>Sarmiento</t>
+  </si>
+  <si>
     <t>Botafogo SP</t>
   </si>
   <si>
-    <t>Hermanos Colmenares</t>
-  </si>
-  <si>
-    <t>Univ. Concepción</t>
-  </si>
-  <si>
-    <t>Sarmiento</t>
-  </si>
-  <si>
-    <t>Godoy Cruz</t>
-  </si>
-  <si>
-    <t>CRB</t>
-  </si>
-  <si>
-    <t>Nueva Chicago</t>
-  </si>
-  <si>
     <t>Defensor Sporting</t>
   </si>
   <si>
@@ -301,6 +322,36 @@
     <t>Club Atlético Güemes</t>
   </si>
   <si>
+    <t>San Martín Tucumán</t>
+  </si>
+  <si>
+    <t>UCV</t>
+  </si>
+  <si>
+    <t>Atlético GO</t>
+  </si>
+  <si>
+    <t>Huracán</t>
+  </si>
+  <si>
+    <t>San Luis</t>
+  </si>
+  <si>
+    <t>Sampaio Corrêa</t>
+  </si>
+  <si>
+    <t>Atlético Huila</t>
+  </si>
+  <si>
+    <t>Mazatlán</t>
+  </si>
+  <si>
+    <t>Colorado Springs</t>
+  </si>
+  <si>
+    <t>Universitario</t>
+  </si>
+  <si>
     <t>Necaxa</t>
   </si>
   <si>
@@ -313,24 +364,24 @@
     <t>Skövde AIK</t>
   </si>
   <si>
+    <t>El Daklyeh FC</t>
+  </si>
+  <si>
+    <t>Ghazl El Mehalla</t>
+  </si>
+  <si>
     <t>Coca-Cola</t>
   </si>
   <si>
     <t>El Geish</t>
   </si>
   <si>
-    <t>El Daklyeh FC</t>
-  </si>
-  <si>
-    <t>Ghazl El Mehalla</t>
+    <t>Sud América</t>
   </si>
   <si>
     <t>Ludogorets</t>
   </si>
   <si>
-    <t>Sud América</t>
-  </si>
-  <si>
     <t>Sepsi</t>
   </si>
   <si>
@@ -352,27 +403,27 @@
     <t>Atlético Bucaramanga</t>
   </si>
   <si>
+    <t>Almagro</t>
+  </si>
+  <si>
+    <t>Defensa y Justicia</t>
+  </si>
+  <si>
+    <t>Avaí</t>
+  </si>
+  <si>
+    <t>Recoleta</t>
+  </si>
+  <si>
+    <t>Rayo Zuliano</t>
+  </si>
+  <si>
+    <t>Vélez Sarsfield</t>
+  </si>
+  <si>
     <t>Chapecoense</t>
   </si>
   <si>
-    <t>Rayo Zuliano</t>
-  </si>
-  <si>
-    <t>Recoleta</t>
-  </si>
-  <si>
-    <t>Vélez Sarsfield</t>
-  </si>
-  <si>
-    <t>Defensa y Justicia</t>
-  </si>
-  <si>
-    <t>Avaí</t>
-  </si>
-  <si>
-    <t>Almagro</t>
-  </si>
-  <si>
     <t>Danubio</t>
   </si>
   <si>
@@ -380,6 +431,36 @@
   </si>
   <si>
     <t>Alvarado</t>
+  </si>
+  <si>
+    <t>San Telmo</t>
+  </si>
+  <si>
+    <t>Zamora</t>
+  </si>
+  <si>
+    <t>Sport Recife</t>
+  </si>
+  <si>
+    <t>Talleres Córdoba</t>
+  </si>
+  <si>
+    <t>Deportes Iquique</t>
+  </si>
+  <si>
+    <t>Ituano</t>
+  </si>
+  <si>
+    <t>Unión Magdalena</t>
+  </si>
+  <si>
+    <t>Monterrey</t>
+  </si>
+  <si>
+    <t>San Diego Loyal</t>
+  </si>
+  <si>
+    <t>Unión Comercio</t>
   </si>
 </sst>
 </file>
@@ -741,7 +822,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AI28"/>
+  <dimension ref="A1:AI38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -862,16 +943,16 @@
         <v>45121</v>
       </c>
       <c r="C2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D2">
         <v>3</v>
       </c>
       <c r="E2" t="s">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="F2" t="s">
-        <v>95</v>
+        <v>112</v>
       </c>
       <c r="G2">
         <v>1.73</v>
@@ -969,25 +1050,25 @@
         <v>45121</v>
       </c>
       <c r="C3" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D3">
         <v>1</v>
       </c>
       <c r="E3" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="F3" t="s">
-        <v>96</v>
+        <v>113</v>
       </c>
       <c r="G3">
-        <v>2.95</v>
+        <v>2.6</v>
       </c>
       <c r="H3">
-        <v>3.05</v>
+        <v>2.98</v>
       </c>
       <c r="I3">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="J3">
         <v>1.09</v>
@@ -1065,7 +1146,7 @@
         <v>3.8</v>
       </c>
       <c r="AI3">
-        <v>0</v>
+        <v>5.1</v>
       </c>
     </row>
     <row r="4" spans="1:35">
@@ -1076,25 +1157,25 @@
         <v>45121</v>
       </c>
       <c r="C4" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D4">
         <v>1</v>
       </c>
       <c r="E4" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="F4" t="s">
-        <v>97</v>
+        <v>114</v>
       </c>
       <c r="G4">
-        <v>2.5</v>
+        <v>2.03</v>
       </c>
       <c r="H4">
-        <v>3.1</v>
+        <v>3.18</v>
       </c>
       <c r="I4">
-        <v>2.75</v>
+        <v>3.74</v>
       </c>
       <c r="J4">
         <v>1.04</v>
@@ -1109,10 +1190,10 @@
         <v>2.8</v>
       </c>
       <c r="N4">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="O4">
-        <v>1.57</v>
+        <v>1.63</v>
       </c>
       <c r="P4">
         <v>1.5</v>
@@ -1183,25 +1264,25 @@
         <v>45121</v>
       </c>
       <c r="C5" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D5">
         <v>14</v>
       </c>
       <c r="E5" t="s">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="F5" t="s">
-        <v>98</v>
+        <v>115</v>
       </c>
       <c r="G5">
-        <v>1.38</v>
+        <v>1.39</v>
       </c>
       <c r="H5">
-        <v>4.7</v>
+        <v>4.75</v>
       </c>
       <c r="I5">
-        <v>7.2</v>
+        <v>7.63</v>
       </c>
       <c r="J5">
         <v>1.04</v>
@@ -1216,10 +1297,10 @@
         <v>4</v>
       </c>
       <c r="N5">
-        <v>1.6</v>
+        <v>1.62</v>
       </c>
       <c r="O5">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="P5">
         <v>1.3</v>
@@ -1258,28 +1339,28 @@
         <v>2.62</v>
       </c>
       <c r="AB5">
-        <v>0</v>
+        <v>1.1</v>
       </c>
       <c r="AC5">
-        <v>0</v>
+        <v>10.25</v>
       </c>
       <c r="AD5">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="AE5">
         <v>0</v>
       </c>
       <c r="AF5">
-        <v>0</v>
+        <v>1.23</v>
       </c>
       <c r="AG5">
-        <v>0</v>
+        <v>1.42</v>
       </c>
       <c r="AH5">
         <v>1.93</v>
       </c>
       <c r="AI5">
-        <v>0</v>
+        <v>2.15</v>
       </c>
     </row>
     <row r="6" spans="1:35">
@@ -1290,34 +1371,34 @@
         <v>45121</v>
       </c>
       <c r="C6" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D6">
         <v>34</v>
       </c>
       <c r="E6" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="F6" t="s">
-        <v>99</v>
+        <v>116</v>
       </c>
       <c r="G6">
-        <v>2.6</v>
+        <v>2.53</v>
       </c>
       <c r="H6">
-        <v>3.05</v>
+        <v>2.94</v>
       </c>
       <c r="I6">
-        <v>2.55</v>
+        <v>3.19</v>
       </c>
       <c r="J6">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="K6">
-        <v>8.25</v>
+        <v>8</v>
       </c>
       <c r="L6">
-        <v>1.39</v>
+        <v>1.4</v>
       </c>
       <c r="M6">
         <v>2.8</v>
@@ -1329,64 +1410,64 @@
         <v>1.6</v>
       </c>
       <c r="P6">
-        <v>1.46</v>
+        <v>1.47</v>
       </c>
       <c r="Q6">
-        <v>2.45</v>
+        <v>2.5</v>
       </c>
       <c r="R6">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="S6">
-        <v>1.9</v>
+        <v>1.83</v>
       </c>
       <c r="T6">
-        <v>1.45</v>
+        <v>1.23</v>
       </c>
       <c r="U6">
-        <v>1.39</v>
+        <v>1.38</v>
       </c>
       <c r="V6">
-        <v>1.42</v>
+        <v>1.76</v>
       </c>
       <c r="W6">
-        <v>1.63</v>
+        <v>1.13</v>
       </c>
       <c r="X6">
-        <v>1.81</v>
+        <v>1.13</v>
       </c>
       <c r="Y6">
-        <v>1.39</v>
+        <v>1.4</v>
       </c>
       <c r="Z6">
-        <v>1.4</v>
+        <v>1.23</v>
       </c>
       <c r="AA6">
-        <v>2.79</v>
+        <v>2.63</v>
       </c>
       <c r="AB6">
-        <v>0</v>
+        <v>1.87</v>
       </c>
       <c r="AC6">
-        <v>0</v>
+        <v>9.119999999999999</v>
       </c>
       <c r="AD6">
-        <v>0</v>
+        <v>2.46</v>
       </c>
       <c r="AE6">
-        <v>0</v>
+        <v>1.32</v>
       </c>
       <c r="AF6">
-        <v>0</v>
+        <v>1.56</v>
       </c>
       <c r="AG6">
-        <v>0</v>
+        <v>1.92</v>
       </c>
       <c r="AH6">
-        <v>0</v>
+        <v>2.35</v>
       </c>
       <c r="AI6">
-        <v>0</v>
+        <v>2.9</v>
       </c>
     </row>
     <row r="7" spans="1:35">
@@ -1397,100 +1478,100 @@
         <v>45121</v>
       </c>
       <c r="C7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D7">
         <v>34</v>
       </c>
       <c r="E7" t="s">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="F7" t="s">
-        <v>100</v>
+        <v>117</v>
       </c>
       <c r="G7">
-        <v>1.73</v>
+        <v>3</v>
       </c>
       <c r="H7">
-        <v>3.25</v>
+        <v>2.83</v>
       </c>
       <c r="I7">
-        <v>4.5</v>
+        <v>2.61</v>
       </c>
       <c r="J7">
-        <v>1.06</v>
+        <v>1.09</v>
       </c>
       <c r="K7">
-        <v>9</v>
+        <v>7.5</v>
       </c>
       <c r="L7">
-        <v>1.39</v>
+        <v>1.45</v>
       </c>
       <c r="M7">
-        <v>2.93</v>
+        <v>2.55</v>
       </c>
       <c r="N7">
-        <v>2.04</v>
+        <v>2.4</v>
       </c>
       <c r="O7">
-        <v>1.59</v>
+        <v>1.5</v>
       </c>
       <c r="P7">
-        <v>1.46</v>
+        <v>1.5</v>
       </c>
       <c r="Q7">
-        <v>2.55</v>
+        <v>2.33</v>
       </c>
       <c r="R7">
-        <v>1.95</v>
+        <v>2.2</v>
       </c>
       <c r="S7">
+        <v>1.6</v>
+      </c>
+      <c r="T7">
+        <v>2.1</v>
+      </c>
+      <c r="U7">
+        <v>1.32</v>
+      </c>
+      <c r="V7">
+        <v>1.14</v>
+      </c>
+      <c r="W7">
+        <v>0.88</v>
+      </c>
+      <c r="X7">
+        <v>0.75</v>
+      </c>
+      <c r="Y7">
+        <v>1.1</v>
+      </c>
+      <c r="Z7">
+        <v>1.14</v>
+      </c>
+      <c r="AA7">
+        <v>2.24</v>
+      </c>
+      <c r="AB7">
+        <v>2.37</v>
+      </c>
+      <c r="AC7">
+        <v>8.5</v>
+      </c>
+      <c r="AD7">
         <v>1.8</v>
       </c>
-      <c r="T7">
-        <v>1.2</v>
-      </c>
-      <c r="U7">
-        <v>1.34</v>
-      </c>
-      <c r="V7">
-        <v>1.95</v>
-      </c>
-      <c r="W7">
-        <v>2.6</v>
-      </c>
-      <c r="X7">
-        <v>0.8100000000000001</v>
-      </c>
-      <c r="Y7">
-        <v>1.73</v>
-      </c>
-      <c r="Z7">
-        <v>1.33</v>
-      </c>
-      <c r="AA7">
-        <v>3.06</v>
-      </c>
-      <c r="AB7">
-        <v>0</v>
-      </c>
-      <c r="AC7">
-        <v>0</v>
-      </c>
-      <c r="AD7">
-        <v>0</v>
-      </c>
       <c r="AE7">
-        <v>0</v>
+        <v>1.35</v>
       </c>
       <c r="AF7">
-        <v>0</v>
+        <v>1.72</v>
       </c>
       <c r="AG7">
-        <v>0</v>
+        <v>2.13</v>
       </c>
       <c r="AH7">
-        <v>0</v>
+        <v>2.79</v>
       </c>
       <c r="AI7">
         <v>0</v>
@@ -1504,34 +1585,34 @@
         <v>45121</v>
       </c>
       <c r="C8" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D8">
         <v>34</v>
       </c>
       <c r="E8" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="F8" t="s">
-        <v>101</v>
+        <v>118</v>
       </c>
       <c r="G8">
-        <v>1.93</v>
+        <v>2.78</v>
       </c>
       <c r="H8">
-        <v>3.2</v>
+        <v>2.92</v>
       </c>
       <c r="I8">
-        <v>3.7</v>
+        <v>2.72</v>
       </c>
       <c r="J8">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="K8">
-        <v>8</v>
+        <v>8.25</v>
       </c>
       <c r="L8">
-        <v>1.4</v>
+        <v>1.39</v>
       </c>
       <c r="M8">
         <v>2.8</v>
@@ -1543,64 +1624,64 @@
         <v>1.6</v>
       </c>
       <c r="P8">
-        <v>1.47</v>
+        <v>1.46</v>
       </c>
       <c r="Q8">
-        <v>2.5</v>
+        <v>2.45</v>
       </c>
       <c r="R8">
+        <v>1.8</v>
+      </c>
+      <c r="S8">
         <v>1.9</v>
       </c>
-      <c r="S8">
-        <v>1.83</v>
-      </c>
       <c r="T8">
-        <v>1.23</v>
+        <v>1.45</v>
       </c>
       <c r="U8">
-        <v>1.38</v>
+        <v>1.39</v>
       </c>
       <c r="V8">
-        <v>1.76</v>
+        <v>1.42</v>
       </c>
       <c r="W8">
-        <v>1.13</v>
+        <v>1.63</v>
       </c>
       <c r="X8">
-        <v>1.13</v>
+        <v>1.81</v>
       </c>
       <c r="Y8">
+        <v>1.39</v>
+      </c>
+      <c r="Z8">
         <v>1.4</v>
       </c>
-      <c r="Z8">
-        <v>1.23</v>
-      </c>
       <c r="AA8">
-        <v>2.63</v>
+        <v>2.79</v>
       </c>
       <c r="AB8">
-        <v>0</v>
+        <v>2.07</v>
       </c>
       <c r="AC8">
-        <v>0</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="AD8">
-        <v>0</v>
+        <v>1.99</v>
       </c>
       <c r="AE8">
-        <v>0</v>
+        <v>1.34</v>
       </c>
       <c r="AF8">
-        <v>0</v>
+        <v>1.63</v>
       </c>
       <c r="AG8">
-        <v>0</v>
+        <v>2.09</v>
       </c>
       <c r="AH8">
-        <v>0</v>
+        <v>2.75</v>
       </c>
       <c r="AI8">
-        <v>0</v>
+        <v>3.88</v>
       </c>
     </row>
     <row r="9" spans="1:35">
@@ -1611,100 +1692,100 @@
         <v>45121</v>
       </c>
       <c r="C9" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D9">
         <v>34</v>
       </c>
       <c r="E9" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="F9" t="s">
-        <v>102</v>
+        <v>119</v>
       </c>
       <c r="G9">
-        <v>5</v>
+        <v>1.8</v>
       </c>
       <c r="H9">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="I9">
-        <v>1.68</v>
+        <v>4.3</v>
       </c>
       <c r="J9">
-        <v>1.09</v>
+        <v>1.06</v>
       </c>
       <c r="K9">
-        <v>7.5</v>
+        <v>9</v>
       </c>
       <c r="L9">
-        <v>1.45</v>
+        <v>1.39</v>
       </c>
       <c r="M9">
+        <v>2.93</v>
+      </c>
+      <c r="N9">
+        <v>2.2</v>
+      </c>
+      <c r="O9">
+        <v>1.6</v>
+      </c>
+      <c r="P9">
+        <v>1.46</v>
+      </c>
+      <c r="Q9">
         <v>2.55</v>
       </c>
-      <c r="N9">
-        <v>2.4</v>
-      </c>
-      <c r="O9">
-        <v>1.5</v>
-      </c>
-      <c r="P9">
-        <v>1.5</v>
-      </c>
-      <c r="Q9">
-        <v>2.33</v>
-      </c>
       <c r="R9">
-        <v>2.2</v>
+        <v>1.95</v>
       </c>
       <c r="S9">
-        <v>1.6</v>
+        <v>1.8</v>
       </c>
       <c r="T9">
-        <v>2.1</v>
+        <v>1.2</v>
       </c>
       <c r="U9">
-        <v>1.32</v>
+        <v>1.34</v>
       </c>
       <c r="V9">
-        <v>1.14</v>
+        <v>1.95</v>
       </c>
       <c r="W9">
-        <v>0.88</v>
+        <v>2.6</v>
       </c>
       <c r="X9">
-        <v>0.75</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="Y9">
-        <v>1.1</v>
+        <v>1.73</v>
       </c>
       <c r="Z9">
-        <v>1.14</v>
+        <v>1.33</v>
       </c>
       <c r="AA9">
-        <v>2.24</v>
+        <v>3.06</v>
       </c>
       <c r="AB9">
-        <v>0</v>
+        <v>1.31</v>
       </c>
       <c r="AC9">
-        <v>0</v>
+        <v>9.6</v>
       </c>
       <c r="AD9">
-        <v>0</v>
+        <v>4.2</v>
       </c>
       <c r="AE9">
-        <v>0</v>
+        <v>1.38</v>
       </c>
       <c r="AF9">
-        <v>0</v>
+        <v>1.74</v>
       </c>
       <c r="AG9">
-        <v>0</v>
+        <v>2.16</v>
       </c>
       <c r="AH9">
-        <v>0</v>
+        <v>2.93</v>
       </c>
       <c r="AI9">
         <v>0</v>
@@ -1712,85 +1793,85 @@
     </row>
     <row r="10" spans="1:35">
       <c r="A10" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B10" s="2">
         <v>45121</v>
       </c>
       <c r="C10" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D10">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="E10" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="F10" t="s">
-        <v>103</v>
+        <v>120</v>
       </c>
       <c r="G10">
+        <v>1.48</v>
+      </c>
+      <c r="H10">
+        <v>4.1</v>
+      </c>
+      <c r="I10">
+        <v>6.2</v>
+      </c>
+      <c r="J10">
+        <v>1.04</v>
+      </c>
+      <c r="K10">
         <v>11</v>
       </c>
-      <c r="H10">
-        <v>5.2</v>
-      </c>
-      <c r="I10">
-        <v>1.25</v>
-      </c>
-      <c r="J10">
-        <v>1</v>
-      </c>
-      <c r="K10">
-        <v>14.1</v>
-      </c>
       <c r="L10">
+        <v>1.28</v>
+      </c>
+      <c r="M10">
+        <v>3.3</v>
+      </c>
+      <c r="N10">
+        <v>1.99</v>
+      </c>
+      <c r="O10">
+        <v>1.79</v>
+      </c>
+      <c r="P10">
+        <v>1.39</v>
+      </c>
+      <c r="Q10">
+        <v>2.77</v>
+      </c>
+      <c r="R10">
+        <v>2.1</v>
+      </c>
+      <c r="S10">
+        <v>1.64</v>
+      </c>
+      <c r="T10">
+        <v>1.11</v>
+      </c>
+      <c r="U10">
         <v>1.2</v>
       </c>
-      <c r="M10">
-        <v>4.33</v>
-      </c>
-      <c r="N10">
-        <v>1.6</v>
-      </c>
-      <c r="O10">
-        <v>1.98</v>
-      </c>
-      <c r="P10">
-        <v>1.3</v>
-      </c>
-      <c r="Q10">
-        <v>3.4</v>
-      </c>
-      <c r="R10">
-        <v>2.25</v>
-      </c>
-      <c r="S10">
-        <v>1.57</v>
-      </c>
-      <c r="T10">
-        <v>3.75</v>
-      </c>
-      <c r="U10">
-        <v>1.07</v>
-      </c>
       <c r="V10">
-        <v>1.02</v>
+        <v>2.5</v>
       </c>
       <c r="W10">
-        <v>0</v>
+        <v>2.63</v>
       </c>
       <c r="X10">
-        <v>0</v>
+        <v>0.88</v>
       </c>
       <c r="Y10">
-        <v>0</v>
+        <v>1.74</v>
       </c>
       <c r="Z10">
-        <v>0</v>
+        <v>1.33</v>
       </c>
       <c r="AA10">
-        <v>0</v>
+        <v>3.07</v>
       </c>
       <c r="AB10">
         <v>0</v>
@@ -1819,85 +1900,85 @@
     </row>
     <row r="11" spans="1:35">
       <c r="A11" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B11" s="2">
         <v>45121</v>
       </c>
       <c r="C11" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D11">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="E11" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="F11" t="s">
-        <v>104</v>
+        <v>121</v>
       </c>
       <c r="G11">
-        <v>0</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>5.6</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>1.21</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>14.1</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>4.33</v>
       </c>
       <c r="N11">
-        <v>0</v>
+        <v>1.62</v>
       </c>
       <c r="O11">
-        <v>0</v>
+        <v>2.16</v>
       </c>
       <c r="P11">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="Q11">
-        <v>0</v>
+        <v>3.4</v>
       </c>
       <c r="R11">
-        <v>0</v>
+        <v>2.25</v>
       </c>
       <c r="S11">
-        <v>0</v>
+        <v>1.57</v>
       </c>
       <c r="T11">
-        <v>0</v>
+        <v>3.75</v>
       </c>
       <c r="U11">
-        <v>0</v>
+        <v>1.07</v>
       </c>
       <c r="V11">
-        <v>0</v>
+        <v>1.02</v>
       </c>
       <c r="W11">
-        <v>2.63</v>
+        <v>0</v>
       </c>
       <c r="X11">
-        <v>0.88</v>
+        <v>0</v>
       </c>
       <c r="Y11">
-        <v>1.74</v>
+        <v>0</v>
       </c>
       <c r="Z11">
-        <v>1.33</v>
+        <v>0</v>
       </c>
       <c r="AA11">
-        <v>3.07</v>
+        <v>0</v>
       </c>
       <c r="AB11">
         <v>0</v>
@@ -1932,25 +2013,25 @@
         <v>45121</v>
       </c>
       <c r="C12" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D12">
         <v>1</v>
       </c>
       <c r="E12" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="F12" t="s">
-        <v>105</v>
+        <v>122</v>
       </c>
       <c r="G12">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="H12">
-        <v>3.2</v>
+        <v>3.31</v>
       </c>
       <c r="I12">
-        <v>3.75</v>
+        <v>3.86</v>
       </c>
       <c r="J12">
         <v>1.08</v>
@@ -1965,10 +2046,10 @@
         <v>2.8</v>
       </c>
       <c r="N12">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="O12">
-        <v>1.67</v>
+        <v>1.63</v>
       </c>
       <c r="P12">
         <v>1.44</v>
@@ -2028,7 +2109,7 @@
         <v>2.95</v>
       </c>
       <c r="AI12">
-        <v>0</v>
+        <v>4.5</v>
       </c>
     </row>
     <row r="13" spans="1:35">
@@ -2039,25 +2120,25 @@
         <v>45121</v>
       </c>
       <c r="C13" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D13">
         <v>24</v>
       </c>
       <c r="E13" t="s">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="F13" t="s">
-        <v>106</v>
+        <v>123</v>
       </c>
       <c r="G13">
-        <v>6.8</v>
+        <v>6.88</v>
       </c>
       <c r="H13">
-        <v>4.5</v>
+        <v>4.61</v>
       </c>
       <c r="I13">
-        <v>1.41</v>
+        <v>1.45</v>
       </c>
       <c r="J13">
         <v>1.03</v>
@@ -2072,10 +2153,10 @@
         <v>3.8</v>
       </c>
       <c r="N13">
-        <v>1.6</v>
+        <v>1.74</v>
       </c>
       <c r="O13">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="P13">
         <v>1.35</v>
@@ -2123,19 +2204,19 @@
         <v>1.26</v>
       </c>
       <c r="AE13">
-        <v>0</v>
+        <v>1.24</v>
       </c>
       <c r="AF13">
-        <v>0</v>
+        <v>1.46</v>
       </c>
       <c r="AG13">
         <v>1.83</v>
       </c>
       <c r="AH13">
-        <v>0</v>
+        <v>2.32</v>
       </c>
       <c r="AI13">
-        <v>0</v>
+        <v>3.08</v>
       </c>
     </row>
     <row r="14" spans="1:35">
@@ -2146,25 +2227,25 @@
         <v>45121</v>
       </c>
       <c r="C14" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D14">
         <v>24</v>
       </c>
       <c r="E14" t="s">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="F14" t="s">
-        <v>107</v>
+        <v>124</v>
       </c>
       <c r="G14">
-        <v>2.45</v>
+        <v>2.51</v>
       </c>
       <c r="H14">
-        <v>2.8</v>
+        <v>2.92</v>
       </c>
       <c r="I14">
-        <v>2.8</v>
+        <v>3.14</v>
       </c>
       <c r="J14">
         <v>1.07</v>
@@ -2173,16 +2254,16 @@
         <v>6.5</v>
       </c>
       <c r="L14">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="M14">
-        <v>2.45</v>
+        <v>2.37</v>
       </c>
       <c r="N14">
-        <v>2.21</v>
+        <v>2.48</v>
       </c>
       <c r="O14">
-        <v>1.55</v>
+        <v>1.49</v>
       </c>
       <c r="P14">
         <v>1.5</v>
@@ -2230,19 +2311,19 @@
         <v>1.82</v>
       </c>
       <c r="AE14">
-        <v>0</v>
+        <v>1.36</v>
       </c>
       <c r="AF14">
-        <v>0</v>
+        <v>1.66</v>
       </c>
       <c r="AG14">
         <v>1.98</v>
       </c>
       <c r="AH14">
-        <v>0</v>
+        <v>2.79</v>
       </c>
       <c r="AI14">
-        <v>0</v>
+        <v>3.8</v>
       </c>
     </row>
     <row r="15" spans="1:35">
@@ -2253,25 +2334,25 @@
         <v>45121</v>
       </c>
       <c r="C15" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D15">
         <v>15</v>
       </c>
       <c r="E15" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="F15" t="s">
-        <v>108</v>
+        <v>125</v>
       </c>
       <c r="G15">
-        <v>4.6</v>
+        <v>4.31</v>
       </c>
       <c r="H15">
-        <v>4.05</v>
+        <v>4.37</v>
       </c>
       <c r="I15">
-        <v>1.55</v>
+        <v>1.65</v>
       </c>
       <c r="J15">
         <v>1.02</v>
@@ -2286,10 +2367,10 @@
         <v>5.5</v>
       </c>
       <c r="N15">
-        <v>1.38</v>
+        <v>1.39</v>
       </c>
       <c r="O15">
-        <v>2.6</v>
+        <v>2.77</v>
       </c>
       <c r="P15">
         <v>1.22</v>
@@ -2328,28 +2409,28 @@
         <v>3.14</v>
       </c>
       <c r="AB15">
-        <v>0</v>
+        <v>2.9</v>
       </c>
       <c r="AC15">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="AD15">
-        <v>0</v>
+        <v>1.55</v>
       </c>
       <c r="AE15">
-        <v>0</v>
+        <v>1.12</v>
       </c>
       <c r="AF15">
-        <v>0</v>
+        <v>1.23</v>
       </c>
       <c r="AG15">
-        <v>0</v>
+        <v>1.42</v>
       </c>
       <c r="AH15">
         <v>1.8</v>
       </c>
       <c r="AI15">
-        <v>0</v>
+        <v>2.04</v>
       </c>
     </row>
     <row r="16" spans="1:35">
@@ -2360,25 +2441,25 @@
         <v>45121</v>
       </c>
       <c r="C16" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D16">
         <v>4</v>
       </c>
       <c r="E16" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="F16" t="s">
-        <v>109</v>
+        <v>126</v>
       </c>
       <c r="G16">
-        <v>1.85</v>
+        <v>1.74</v>
       </c>
       <c r="H16">
-        <v>3.65</v>
+        <v>3.64</v>
       </c>
       <c r="I16">
-        <v>4.2</v>
+        <v>4.15</v>
       </c>
       <c r="J16">
         <v>1.04</v>
@@ -2393,10 +2474,10 @@
         <v>3.45</v>
       </c>
       <c r="N16">
-        <v>1.87</v>
+        <v>1.92</v>
       </c>
       <c r="O16">
-        <v>1.95</v>
+        <v>1.81</v>
       </c>
       <c r="P16">
         <v>1.38</v>
@@ -2435,28 +2516,28 @@
         <v>2.91</v>
       </c>
       <c r="AB16">
-        <v>0</v>
+        <v>1.22</v>
       </c>
       <c r="AC16">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="AD16">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AE16">
         <v>0</v>
       </c>
       <c r="AF16">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="AG16">
-        <v>0</v>
+        <v>1.42</v>
       </c>
       <c r="AH16">
-        <v>0</v>
+        <v>1.73</v>
       </c>
       <c r="AI16">
-        <v>0</v>
+        <v>2.17</v>
       </c>
     </row>
     <row r="17" spans="1:35">
@@ -2467,25 +2548,25 @@
         <v>45121</v>
       </c>
       <c r="C17" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D17">
         <v>17</v>
       </c>
       <c r="E17" t="s">
-        <v>83</v>
+        <v>90</v>
       </c>
       <c r="F17" t="s">
-        <v>110</v>
+        <v>127</v>
       </c>
       <c r="G17">
-        <v>1.8</v>
+        <v>3.05</v>
       </c>
       <c r="H17">
-        <v>3.4</v>
+        <v>2.02</v>
       </c>
       <c r="I17">
-        <v>4.6</v>
+        <v>3.52</v>
       </c>
       <c r="J17">
         <v>1.05</v>
@@ -2500,10 +2581,10 @@
         <v>3.5</v>
       </c>
       <c r="N17">
-        <v>1.84</v>
+        <v>1.79</v>
       </c>
       <c r="O17">
-        <v>1.94</v>
+        <v>1.91</v>
       </c>
       <c r="P17">
         <v>1.36</v>
@@ -2542,28 +2623,28 @@
         <v>3.19</v>
       </c>
       <c r="AB17">
-        <v>0</v>
+        <v>1.69</v>
       </c>
       <c r="AC17">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="AD17">
-        <v>0</v>
+        <v>2.63</v>
       </c>
       <c r="AE17">
-        <v>0</v>
+        <v>1.21</v>
       </c>
       <c r="AF17">
-        <v>0</v>
+        <v>1.34</v>
       </c>
       <c r="AG17">
-        <v>0</v>
+        <v>1.6</v>
       </c>
       <c r="AH17">
-        <v>0</v>
+        <v>2.07</v>
       </c>
       <c r="AI17">
-        <v>0</v>
+        <v>2.7</v>
       </c>
     </row>
     <row r="18" spans="1:35">
@@ -2574,25 +2655,25 @@
         <v>45121</v>
       </c>
       <c r="C18" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D18">
         <v>1</v>
       </c>
       <c r="E18" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="F18" t="s">
-        <v>111</v>
+        <v>128</v>
       </c>
       <c r="G18">
-        <v>2.2</v>
+        <v>2.31</v>
       </c>
       <c r="H18">
-        <v>3</v>
+        <v>3.09</v>
       </c>
       <c r="I18">
-        <v>3</v>
+        <v>3.49</v>
       </c>
       <c r="J18">
         <v>1.06</v>
@@ -2607,10 +2688,10 @@
         <v>3</v>
       </c>
       <c r="N18">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="O18">
-        <v>1.61</v>
+        <v>1.68</v>
       </c>
       <c r="P18">
         <v>1.44</v>
@@ -2649,28 +2730,28 @@
         <v>2.65</v>
       </c>
       <c r="AB18">
-        <v>0</v>
+        <v>1.51</v>
       </c>
       <c r="AC18">
-        <v>0</v>
+        <v>8.5</v>
       </c>
       <c r="AD18">
-        <v>0</v>
+        <v>3.07</v>
       </c>
       <c r="AE18">
-        <v>0</v>
+        <v>1.27</v>
       </c>
       <c r="AF18">
-        <v>0</v>
+        <v>1.48</v>
       </c>
       <c r="AG18">
-        <v>0</v>
+        <v>1.93</v>
       </c>
       <c r="AH18">
-        <v>0</v>
+        <v>2.4</v>
       </c>
       <c r="AI18">
-        <v>0</v>
+        <v>3.2</v>
       </c>
     </row>
     <row r="19" spans="1:35">
@@ -2681,100 +2762,100 @@
         <v>45121</v>
       </c>
       <c r="C19" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D19">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="E19" t="s">
-        <v>85</v>
+        <v>92</v>
       </c>
       <c r="F19" t="s">
-        <v>112</v>
+        <v>129</v>
       </c>
       <c r="G19">
-        <v>1.95</v>
+        <v>2.2</v>
       </c>
       <c r="H19">
-        <v>2.9</v>
+        <v>2.73</v>
       </c>
       <c r="I19">
-        <v>3.7</v>
+        <v>3.35</v>
       </c>
       <c r="J19">
-        <v>1.09</v>
+        <v>1.12</v>
       </c>
       <c r="K19">
-        <v>7</v>
+        <v>5.05</v>
       </c>
       <c r="L19">
-        <v>1.49</v>
+        <v>1.7</v>
       </c>
       <c r="M19">
-        <v>2.45</v>
+        <v>2.05</v>
       </c>
       <c r="N19">
-        <v>2.37</v>
+        <v>3.2</v>
       </c>
       <c r="O19">
-        <v>1.53</v>
+        <v>1.3</v>
       </c>
       <c r="P19">
-        <v>1.55</v>
+        <v>1.74</v>
       </c>
       <c r="Q19">
-        <v>2.3</v>
+        <v>2.09</v>
       </c>
       <c r="R19">
-        <v>2.15</v>
+        <v>2.57</v>
       </c>
       <c r="S19">
+        <v>1.48</v>
+      </c>
+      <c r="T19">
+        <v>1.25</v>
+      </c>
+      <c r="U19">
+        <v>1.41</v>
+      </c>
+      <c r="V19">
+        <v>1.67</v>
+      </c>
+      <c r="W19">
+        <v>1.91</v>
+      </c>
+      <c r="X19">
+        <v>0.55</v>
+      </c>
+      <c r="Y19">
+        <v>1.32</v>
+      </c>
+      <c r="Z19">
+        <v>1.16</v>
+      </c>
+      <c r="AA19">
+        <v>2.48</v>
+      </c>
+      <c r="AB19">
+        <v>2.16</v>
+      </c>
+      <c r="AC19">
+        <v>8</v>
+      </c>
+      <c r="AD19">
+        <v>1.98</v>
+      </c>
+      <c r="AE19">
         <v>1.61</v>
       </c>
-      <c r="T19">
-        <v>1.27</v>
-      </c>
-      <c r="U19">
-        <v>1.36</v>
-      </c>
-      <c r="V19">
-        <v>1.66</v>
-      </c>
-      <c r="W19">
-        <v>1.63</v>
-      </c>
-      <c r="X19">
-        <v>0.71</v>
-      </c>
-      <c r="Y19">
-        <v>1.54</v>
-      </c>
-      <c r="Z19">
-        <v>1.45</v>
-      </c>
-      <c r="AA19">
-        <v>2.99</v>
-      </c>
-      <c r="AB19">
-        <v>0</v>
-      </c>
-      <c r="AC19">
-        <v>0</v>
-      </c>
-      <c r="AD19">
-        <v>0</v>
-      </c>
-      <c r="AE19">
-        <v>0</v>
-      </c>
       <c r="AF19">
-        <v>0</v>
+        <v>2.05</v>
       </c>
       <c r="AG19">
-        <v>0</v>
+        <v>2.6</v>
       </c>
       <c r="AH19">
-        <v>0</v>
+        <v>3.84</v>
       </c>
       <c r="AI19">
         <v>0</v>
@@ -2788,103 +2869,103 @@
         <v>45121</v>
       </c>
       <c r="C20" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D20">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="E20" t="s">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="F20" t="s">
-        <v>113</v>
+        <v>130</v>
       </c>
       <c r="G20">
-        <v>0</v>
+        <v>2.12</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>3.38</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>3.26</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>1.07</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>6.5</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>1.33</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N20">
-        <v>0</v>
+        <v>2.1</v>
       </c>
       <c r="O20">
-        <v>0</v>
+        <v>1.65</v>
       </c>
       <c r="P20">
-        <v>0</v>
+        <v>1.49</v>
       </c>
       <c r="Q20">
-        <v>0</v>
+        <v>2.51</v>
       </c>
       <c r="R20">
-        <v>0</v>
+        <v>1.9</v>
       </c>
       <c r="S20">
-        <v>0</v>
+        <v>1.86</v>
       </c>
       <c r="T20">
-        <v>0</v>
+        <v>1.33</v>
       </c>
       <c r="U20">
-        <v>0</v>
+        <v>1.33</v>
       </c>
       <c r="V20">
-        <v>0</v>
+        <v>1.68</v>
       </c>
       <c r="W20">
-        <v>1.13</v>
+        <v>2.18</v>
       </c>
       <c r="X20">
-        <v>0.9</v>
+        <v>1.55</v>
       </c>
       <c r="Y20">
-        <v>1.59</v>
+        <v>1.54</v>
       </c>
       <c r="Z20">
         <v>1.37</v>
       </c>
       <c r="AA20">
-        <v>2.96</v>
+        <v>2.91</v>
       </c>
       <c r="AB20">
-        <v>0</v>
+        <v>1.41</v>
       </c>
       <c r="AC20">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="AD20">
-        <v>0</v>
+        <v>3.49</v>
       </c>
       <c r="AE20">
-        <v>0</v>
+        <v>1.28</v>
       </c>
       <c r="AF20">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="AG20">
-        <v>0</v>
+        <v>1.93</v>
       </c>
       <c r="AH20">
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="AI20">
-        <v>0</v>
+        <v>3.45</v>
       </c>
     </row>
     <row r="21" spans="1:35">
@@ -2895,103 +2976,103 @@
         <v>45121</v>
       </c>
       <c r="C21" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D21">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E21" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="F21" t="s">
-        <v>114</v>
+        <v>131</v>
       </c>
       <c r="G21">
-        <v>2</v>
+        <v>1.93</v>
       </c>
       <c r="H21">
-        <v>3.05</v>
+        <v>3.2</v>
       </c>
       <c r="I21">
-        <v>3.65</v>
+        <v>4.33</v>
       </c>
       <c r="J21">
-        <v>1.06</v>
+        <v>1.1</v>
       </c>
       <c r="K21">
-        <v>9.300000000000001</v>
+        <v>6.5</v>
       </c>
       <c r="L21">
-        <v>1.32</v>
+        <v>1.44</v>
       </c>
       <c r="M21">
-        <v>2.92</v>
+        <v>2.62</v>
       </c>
       <c r="N21">
-        <v>2.09</v>
+        <v>2.3</v>
       </c>
       <c r="O21">
-        <v>1.72</v>
+        <v>1.56</v>
       </c>
       <c r="P21">
-        <v>1.45</v>
+        <v>1.47</v>
       </c>
       <c r="Q21">
-        <v>2.6</v>
+        <v>2.45</v>
       </c>
       <c r="R21">
-        <v>1.85</v>
+        <v>2.1</v>
       </c>
       <c r="S21">
-        <v>1.85</v>
+        <v>1.63</v>
       </c>
       <c r="T21">
-        <v>1.29</v>
+        <v>1.2</v>
       </c>
       <c r="U21">
         <v>1.3</v>
       </c>
       <c r="V21">
-        <v>1.55</v>
+        <v>1.93</v>
       </c>
       <c r="W21">
+        <v>1.5</v>
+      </c>
+      <c r="X21">
+        <v>0.63</v>
+      </c>
+      <c r="Y21">
         <v>1.44</v>
       </c>
-      <c r="X21">
-        <v>0.75</v>
-      </c>
-      <c r="Y21">
-        <v>1.72</v>
-      </c>
       <c r="Z21">
-        <v>1.23</v>
+        <v>1.14</v>
       </c>
       <c r="AA21">
-        <v>2.95</v>
+        <v>2.58</v>
       </c>
       <c r="AB21">
-        <v>0</v>
+        <v>1.7</v>
       </c>
       <c r="AC21">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="AD21">
-        <v>0</v>
+        <v>2.7</v>
       </c>
       <c r="AE21">
-        <v>0</v>
+        <v>1.17</v>
       </c>
       <c r="AF21">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="AG21">
-        <v>0</v>
+        <v>1.63</v>
       </c>
       <c r="AH21">
-        <v>0</v>
+        <v>1.97</v>
       </c>
       <c r="AI21">
-        <v>0</v>
+        <v>2.45</v>
       </c>
     </row>
     <row r="22" spans="1:35">
@@ -3002,88 +3083,88 @@
         <v>45121</v>
       </c>
       <c r="C22" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D22">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="E22" t="s">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="F22" t="s">
-        <v>115</v>
+        <v>132</v>
       </c>
       <c r="G22">
+        <v>2</v>
+      </c>
+      <c r="H22">
+        <v>3.05</v>
+      </c>
+      <c r="I22">
+        <v>3.65</v>
+      </c>
+      <c r="J22">
+        <v>1.06</v>
+      </c>
+      <c r="K22">
+        <v>9.300000000000001</v>
+      </c>
+      <c r="L22">
+        <v>1.32</v>
+      </c>
+      <c r="M22">
+        <v>2.92</v>
+      </c>
+      <c r="N22">
+        <v>2.02</v>
+      </c>
+      <c r="O22">
+        <v>1.67</v>
+      </c>
+      <c r="P22">
+        <v>1.45</v>
+      </c>
+      <c r="Q22">
         <v>2.6</v>
       </c>
-      <c r="H22">
-        <v>2.86</v>
-      </c>
-      <c r="I22">
-        <v>3.04</v>
-      </c>
-      <c r="J22">
-        <v>1.1</v>
-      </c>
-      <c r="K22">
-        <v>5.7</v>
-      </c>
-      <c r="L22">
-        <v>1.52</v>
-      </c>
-      <c r="M22">
-        <v>2.35</v>
-      </c>
-      <c r="N22">
-        <v>2.6</v>
-      </c>
-      <c r="O22">
-        <v>1.42</v>
-      </c>
-      <c r="P22">
-        <v>1.62</v>
-      </c>
-      <c r="Q22">
-        <v>2.32</v>
-      </c>
       <c r="R22">
-        <v>2.22</v>
+        <v>1.85</v>
       </c>
       <c r="S22">
-        <v>1.63</v>
+        <v>1.85</v>
       </c>
       <c r="T22">
-        <v>1.39</v>
+        <v>1.29</v>
       </c>
       <c r="U22">
-        <v>1.39</v>
+        <v>1.3</v>
       </c>
       <c r="V22">
-        <v>1.51</v>
+        <v>1.55</v>
       </c>
       <c r="W22">
-        <v>1.36</v>
+        <v>1.44</v>
       </c>
       <c r="X22">
-        <v>0.73</v>
+        <v>0.75</v>
       </c>
       <c r="Y22">
-        <v>1.58</v>
+        <v>1.72</v>
       </c>
       <c r="Z22">
-        <v>1.1</v>
+        <v>1.23</v>
       </c>
       <c r="AA22">
-        <v>2.68</v>
+        <v>2.95</v>
       </c>
       <c r="AB22">
-        <v>2.05</v>
+        <v>0</v>
       </c>
       <c r="AC22">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="AD22">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AE22">
         <v>0</v>
@@ -3092,7 +3173,7 @@
         <v>0</v>
       </c>
       <c r="AG22">
-        <v>1.93</v>
+        <v>0</v>
       </c>
       <c r="AH22">
         <v>0</v>
@@ -3103,94 +3184,94 @@
     </row>
     <row r="23" spans="1:35">
       <c r="A23" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B23" s="2">
         <v>45121</v>
       </c>
       <c r="C23" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D23">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="E23" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="F23" t="s">
-        <v>116</v>
+        <v>133</v>
       </c>
       <c r="G23">
-        <v>2.12</v>
+        <v>1.97</v>
       </c>
       <c r="H23">
-        <v>3.38</v>
+        <v>3.3</v>
       </c>
       <c r="I23">
-        <v>3.26</v>
+        <v>3.7</v>
       </c>
       <c r="J23">
-        <v>1.07</v>
+        <v>0</v>
       </c>
       <c r="K23">
-        <v>6.5</v>
+        <v>0</v>
       </c>
       <c r="L23">
-        <v>1.33</v>
+        <v>0</v>
       </c>
       <c r="M23">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="N23">
-        <v>2.1</v>
+        <v>2.02</v>
       </c>
       <c r="O23">
-        <v>1.65</v>
+        <v>1.77</v>
       </c>
       <c r="P23">
-        <v>1.49</v>
+        <v>0</v>
       </c>
       <c r="Q23">
-        <v>2.51</v>
+        <v>0</v>
       </c>
       <c r="R23">
-        <v>1.9</v>
+        <v>0</v>
       </c>
       <c r="S23">
-        <v>1.86</v>
+        <v>0</v>
       </c>
       <c r="T23">
-        <v>1.33</v>
+        <v>0</v>
       </c>
       <c r="U23">
-        <v>1.33</v>
+        <v>0</v>
       </c>
       <c r="V23">
-        <v>1.68</v>
+        <v>0</v>
       </c>
       <c r="W23">
-        <v>2.18</v>
+        <v>1.13</v>
       </c>
       <c r="X23">
-        <v>1.55</v>
+        <v>0.9</v>
       </c>
       <c r="Y23">
-        <v>1.54</v>
+        <v>1.59</v>
       </c>
       <c r="Z23">
         <v>1.37</v>
       </c>
       <c r="AA23">
-        <v>2.91</v>
+        <v>2.96</v>
       </c>
       <c r="AB23">
-        <v>1.41</v>
+        <v>0</v>
       </c>
       <c r="AC23">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="AD23">
-        <v>3.49</v>
+        <v>0</v>
       </c>
       <c r="AE23">
         <v>0</v>
@@ -3199,7 +3280,7 @@
         <v>0</v>
       </c>
       <c r="AG23">
-        <v>1.93</v>
+        <v>0</v>
       </c>
       <c r="AH23">
         <v>0</v>
@@ -3210,216 +3291,216 @@
     </row>
     <row r="24" spans="1:35">
       <c r="A24" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B24" s="2">
         <v>45121</v>
       </c>
       <c r="C24" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D24">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="E24" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="F24" t="s">
-        <v>117</v>
+        <v>134</v>
       </c>
       <c r="G24">
-        <v>1.8</v>
+        <v>2.6</v>
       </c>
       <c r="H24">
-        <v>3.1</v>
+        <v>2.86</v>
       </c>
       <c r="I24">
-        <v>4.33</v>
+        <v>3.04</v>
       </c>
       <c r="J24">
         <v>1.1</v>
       </c>
       <c r="K24">
-        <v>6.5</v>
+        <v>5.7</v>
       </c>
       <c r="L24">
-        <v>1.44</v>
+        <v>1.52</v>
       </c>
       <c r="M24">
-        <v>2.62</v>
+        <v>2.35</v>
       </c>
       <c r="N24">
-        <v>2.37</v>
+        <v>2.6</v>
       </c>
       <c r="O24">
-        <v>1.53</v>
+        <v>1.42</v>
       </c>
       <c r="P24">
-        <v>1.47</v>
+        <v>1.62</v>
       </c>
       <c r="Q24">
-        <v>2.45</v>
+        <v>2.32</v>
       </c>
       <c r="R24">
-        <v>2.1</v>
+        <v>2.22</v>
       </c>
       <c r="S24">
         <v>1.63</v>
       </c>
       <c r="T24">
-        <v>1.2</v>
+        <v>1.39</v>
       </c>
       <c r="U24">
-        <v>1.3</v>
+        <v>1.39</v>
       </c>
       <c r="V24">
+        <v>1.51</v>
+      </c>
+      <c r="W24">
+        <v>1.36</v>
+      </c>
+      <c r="X24">
+        <v>0.73</v>
+      </c>
+      <c r="Y24">
+        <v>1.58</v>
+      </c>
+      <c r="Z24">
+        <v>1.1</v>
+      </c>
+      <c r="AA24">
+        <v>2.68</v>
+      </c>
+      <c r="AB24">
+        <v>2.05</v>
+      </c>
+      <c r="AC24">
+        <v>8</v>
+      </c>
+      <c r="AD24">
+        <v>2</v>
+      </c>
+      <c r="AE24">
+        <v>1.28</v>
+      </c>
+      <c r="AF24">
+        <v>1.5</v>
+      </c>
+      <c r="AG24">
         <v>1.93</v>
       </c>
-      <c r="W24">
-        <v>1.5</v>
-      </c>
-      <c r="X24">
-        <v>0.63</v>
-      </c>
-      <c r="Y24">
-        <v>1.44</v>
-      </c>
-      <c r="Z24">
-        <v>1.14</v>
-      </c>
-      <c r="AA24">
-        <v>2.58</v>
-      </c>
-      <c r="AB24">
-        <v>0</v>
-      </c>
-      <c r="AC24">
-        <v>0</v>
-      </c>
-      <c r="AD24">
-        <v>0</v>
-      </c>
-      <c r="AE24">
-        <v>0</v>
-      </c>
-      <c r="AF24">
-        <v>0</v>
-      </c>
-      <c r="AG24">
-        <v>0</v>
-      </c>
       <c r="AH24">
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="AI24">
-        <v>0</v>
+        <v>3.45</v>
       </c>
     </row>
     <row r="25" spans="1:35">
       <c r="A25" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B25" s="2">
         <v>45121</v>
       </c>
       <c r="C25" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D25">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="E25" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="F25" t="s">
-        <v>118</v>
+        <v>135</v>
       </c>
       <c r="G25">
-        <v>2.28</v>
+        <v>2.2</v>
       </c>
       <c r="H25">
-        <v>2.8</v>
+        <v>3.03</v>
       </c>
       <c r="I25">
-        <v>3.5</v>
+        <v>3.86</v>
       </c>
       <c r="J25">
-        <v>1.12</v>
+        <v>1.09</v>
       </c>
       <c r="K25">
-        <v>5.05</v>
+        <v>7</v>
       </c>
       <c r="L25">
-        <v>1.72</v>
+        <v>1.49</v>
       </c>
       <c r="M25">
-        <v>2.06</v>
+        <v>2.45</v>
       </c>
       <c r="N25">
-        <v>3.02</v>
+        <v>2.3</v>
       </c>
       <c r="O25">
-        <v>1.28</v>
+        <v>1.5</v>
       </c>
       <c r="P25">
-        <v>1.74</v>
+        <v>1.55</v>
       </c>
       <c r="Q25">
-        <v>2.09</v>
+        <v>2.3</v>
       </c>
       <c r="R25">
-        <v>2.57</v>
+        <v>2.15</v>
       </c>
       <c r="S25">
-        <v>1.48</v>
+        <v>1.61</v>
       </c>
       <c r="T25">
-        <v>1.25</v>
+        <v>1.27</v>
       </c>
       <c r="U25">
-        <v>1.41</v>
+        <v>1.36</v>
       </c>
       <c r="V25">
-        <v>1.67</v>
+        <v>1.66</v>
       </c>
       <c r="W25">
-        <v>1.91</v>
+        <v>1.63</v>
       </c>
       <c r="X25">
-        <v>0.55</v>
+        <v>0.71</v>
       </c>
       <c r="Y25">
-        <v>1.32</v>
+        <v>1.54</v>
       </c>
       <c r="Z25">
-        <v>1.16</v>
+        <v>1.45</v>
       </c>
       <c r="AA25">
-        <v>2.48</v>
+        <v>2.99</v>
       </c>
       <c r="AB25">
-        <v>0</v>
+        <v>1.62</v>
       </c>
       <c r="AC25">
-        <v>0</v>
+        <v>7.5</v>
       </c>
       <c r="AD25">
-        <v>0</v>
+        <v>2.88</v>
       </c>
       <c r="AE25">
-        <v>0</v>
+        <v>1.18</v>
       </c>
       <c r="AF25">
-        <v>0</v>
+        <v>1.31</v>
       </c>
       <c r="AG25">
-        <v>0</v>
+        <v>1.65</v>
       </c>
       <c r="AH25">
-        <v>0</v>
+        <v>2.01</v>
       </c>
       <c r="AI25">
-        <v>0</v>
+        <v>2.4</v>
       </c>
     </row>
     <row r="26" spans="1:35">
@@ -3430,25 +3511,25 @@
         <v>45121</v>
       </c>
       <c r="C26" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D26">
         <v>6</v>
       </c>
       <c r="E26" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="F26" t="s">
-        <v>119</v>
+        <v>136</v>
       </c>
       <c r="G26">
-        <v>1.85</v>
+        <v>1.74</v>
       </c>
       <c r="H26">
         <v>3.5</v>
       </c>
       <c r="I26">
-        <v>3.95</v>
+        <v>3.85</v>
       </c>
       <c r="J26">
         <v>1.07</v>
@@ -3463,10 +3544,10 @@
         <v>3</v>
       </c>
       <c r="N26">
-        <v>2.04</v>
+        <v>2.15</v>
       </c>
       <c r="O26">
-        <v>1.59</v>
+        <v>1.62</v>
       </c>
       <c r="P26">
         <v>1.4</v>
@@ -3505,28 +3586,28 @@
         <v>2.98</v>
       </c>
       <c r="AB26">
-        <v>0</v>
+        <v>1.7</v>
       </c>
       <c r="AC26">
-        <v>0</v>
+        <v>8.4</v>
       </c>
       <c r="AD26">
-        <v>0</v>
+        <v>2.55</v>
       </c>
       <c r="AE26">
-        <v>0</v>
+        <v>1.23</v>
       </c>
       <c r="AF26">
-        <v>0</v>
+        <v>1.41</v>
       </c>
       <c r="AG26">
-        <v>0</v>
+        <v>1.8</v>
       </c>
       <c r="AH26">
-        <v>0</v>
+        <v>2.22</v>
       </c>
       <c r="AI26">
-        <v>0</v>
+        <v>2.9</v>
       </c>
     </row>
     <row r="27" spans="1:35">
@@ -3537,25 +3618,25 @@
         <v>45121</v>
       </c>
       <c r="C27" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D27">
         <v>15</v>
       </c>
       <c r="E27" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="F27" t="s">
-        <v>120</v>
+        <v>137</v>
       </c>
       <c r="G27">
-        <v>0</v>
+        <v>3.2</v>
       </c>
       <c r="H27">
-        <v>0</v>
+        <v>3.2</v>
       </c>
       <c r="I27">
-        <v>0</v>
+        <v>2.03</v>
       </c>
       <c r="J27">
         <v>0</v>
@@ -3570,22 +3651,22 @@
         <v>0</v>
       </c>
       <c r="N27">
-        <v>0</v>
+        <v>1.79</v>
       </c>
       <c r="O27">
-        <v>0</v>
+        <v>1.79</v>
       </c>
       <c r="P27">
-        <v>0</v>
+        <v>1.4</v>
       </c>
       <c r="Q27">
-        <v>0</v>
+        <v>2.75</v>
       </c>
       <c r="R27">
-        <v>0</v>
+        <v>1.91</v>
       </c>
       <c r="S27">
-        <v>0</v>
+        <v>1.8</v>
       </c>
       <c r="T27">
         <v>0</v>
@@ -3638,31 +3719,31 @@
     </row>
     <row r="28" spans="1:35">
       <c r="A28" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="B28" s="2">
         <v>45121</v>
       </c>
       <c r="C28" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D28">
         <v>25</v>
       </c>
       <c r="E28" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="F28" t="s">
-        <v>121</v>
+        <v>138</v>
       </c>
       <c r="G28">
-        <v>1.95</v>
+        <v>1.93</v>
       </c>
       <c r="H28">
-        <v>3.15</v>
+        <v>3.1</v>
       </c>
       <c r="I28">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="J28">
         <v>1.12</v>
@@ -3719,28 +3800,1098 @@
         <v>2.43</v>
       </c>
       <c r="AB28">
-        <v>0</v>
+        <v>1.59</v>
       </c>
       <c r="AC28">
-        <v>0</v>
+        <v>8.6</v>
       </c>
       <c r="AD28">
-        <v>0</v>
+        <v>2.94</v>
       </c>
       <c r="AE28">
-        <v>0</v>
+        <v>1.55</v>
       </c>
       <c r="AF28">
-        <v>0</v>
+        <v>1.92</v>
       </c>
       <c r="AG28">
-        <v>0</v>
+        <v>2.43</v>
       </c>
       <c r="AH28">
-        <v>0</v>
+        <v>3.34</v>
       </c>
       <c r="AI28">
         <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:35">
+      <c r="A29" t="s">
+        <v>46</v>
+      </c>
+      <c r="B29" s="2">
+        <v>45121</v>
+      </c>
+      <c r="C29" t="s">
+        <v>69</v>
+      </c>
+      <c r="D29">
+        <v>25</v>
+      </c>
+      <c r="E29" t="s">
+        <v>102</v>
+      </c>
+      <c r="F29" t="s">
+        <v>139</v>
+      </c>
+      <c r="G29">
+        <v>1.38</v>
+      </c>
+      <c r="H29">
+        <v>4</v>
+      </c>
+      <c r="I29">
+        <v>6.9</v>
+      </c>
+      <c r="J29">
+        <v>1.04</v>
+      </c>
+      <c r="K29">
+        <v>7.7</v>
+      </c>
+      <c r="L29">
+        <v>1.36</v>
+      </c>
+      <c r="M29">
+        <v>2.82</v>
+      </c>
+      <c r="N29">
+        <v>2.15</v>
+      </c>
+      <c r="O29">
+        <v>1.61</v>
+      </c>
+      <c r="P29">
+        <v>1.47</v>
+      </c>
+      <c r="Q29">
+        <v>2.67</v>
+      </c>
+      <c r="R29">
+        <v>2.38</v>
+      </c>
+      <c r="S29">
+        <v>1.54</v>
+      </c>
+      <c r="T29">
+        <v>1.08</v>
+      </c>
+      <c r="U29">
+        <v>1.23</v>
+      </c>
+      <c r="V29">
+        <v>2.66</v>
+      </c>
+      <c r="W29">
+        <v>2.18</v>
+      </c>
+      <c r="X29">
+        <v>0.45</v>
+      </c>
+      <c r="Y29">
+        <v>1.4</v>
+      </c>
+      <c r="Z29">
+        <v>1.03</v>
+      </c>
+      <c r="AA29">
+        <v>2.43</v>
+      </c>
+      <c r="AB29">
+        <v>1.33</v>
+      </c>
+      <c r="AC29">
+        <v>9.699999999999999</v>
+      </c>
+      <c r="AD29">
+        <v>4.2</v>
+      </c>
+      <c r="AE29">
+        <v>1.48</v>
+      </c>
+      <c r="AF29">
+        <v>1.8</v>
+      </c>
+      <c r="AG29">
+        <v>2.26</v>
+      </c>
+      <c r="AH29">
+        <v>3.15</v>
+      </c>
+      <c r="AI29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:35">
+      <c r="A30" t="s">
+        <v>50</v>
+      </c>
+      <c r="B30" s="2">
+        <v>45121</v>
+      </c>
+      <c r="C30" t="s">
+        <v>70</v>
+      </c>
+      <c r="D30">
+        <v>19</v>
+      </c>
+      <c r="E30" t="s">
+        <v>103</v>
+      </c>
+      <c r="F30" t="s">
+        <v>140</v>
+      </c>
+      <c r="G30">
+        <v>3.08</v>
+      </c>
+      <c r="H30">
+        <v>2.86</v>
+      </c>
+      <c r="I30">
+        <v>2.32</v>
+      </c>
+      <c r="J30">
+        <v>1.08</v>
+      </c>
+      <c r="K30">
+        <v>7.85</v>
+      </c>
+      <c r="L30">
+        <v>1.42</v>
+      </c>
+      <c r="M30">
+        <v>2.67</v>
+      </c>
+      <c r="N30">
+        <v>2.25</v>
+      </c>
+      <c r="O30">
+        <v>1.57</v>
+      </c>
+      <c r="P30">
+        <v>1.52</v>
+      </c>
+      <c r="Q30">
+        <v>2.4</v>
+      </c>
+      <c r="R30">
+        <v>2</v>
+      </c>
+      <c r="S30">
+        <v>1.75</v>
+      </c>
+      <c r="T30">
+        <v>1.58</v>
+      </c>
+      <c r="U30">
+        <v>1.35</v>
+      </c>
+      <c r="V30">
+        <v>1.3</v>
+      </c>
+      <c r="W30">
+        <v>1.14</v>
+      </c>
+      <c r="X30">
+        <v>0.63</v>
+      </c>
+      <c r="Y30">
+        <v>1.17</v>
+      </c>
+      <c r="Z30">
+        <v>1.46</v>
+      </c>
+      <c r="AA30">
+        <v>2.63</v>
+      </c>
+      <c r="AB30">
+        <v>0</v>
+      </c>
+      <c r="AC30">
+        <v>0</v>
+      </c>
+      <c r="AD30">
+        <v>0</v>
+      </c>
+      <c r="AE30">
+        <v>0</v>
+      </c>
+      <c r="AF30">
+        <v>0</v>
+      </c>
+      <c r="AG30">
+        <v>0</v>
+      </c>
+      <c r="AH30">
+        <v>0</v>
+      </c>
+      <c r="AI30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:35">
+      <c r="A31" t="s">
+        <v>48</v>
+      </c>
+      <c r="B31" s="2">
+        <v>45121</v>
+      </c>
+      <c r="C31" t="s">
+        <v>71</v>
+      </c>
+      <c r="D31">
+        <v>17</v>
+      </c>
+      <c r="E31" t="s">
+        <v>104</v>
+      </c>
+      <c r="F31" t="s">
+        <v>141</v>
+      </c>
+      <c r="G31">
+        <v>2.68</v>
+      </c>
+      <c r="H31">
+        <v>2.93</v>
+      </c>
+      <c r="I31">
+        <v>2.9</v>
+      </c>
+      <c r="J31">
+        <v>1.1</v>
+      </c>
+      <c r="K31">
+        <v>6.5</v>
+      </c>
+      <c r="L31">
+        <v>1.42</v>
+      </c>
+      <c r="M31">
+        <v>2.7</v>
+      </c>
+      <c r="N31">
+        <v>2.28</v>
+      </c>
+      <c r="O31">
+        <v>1.56</v>
+      </c>
+      <c r="P31">
+        <v>1.51</v>
+      </c>
+      <c r="Q31">
+        <v>2.35</v>
+      </c>
+      <c r="R31">
+        <v>1.98</v>
+      </c>
+      <c r="S31">
+        <v>1.71</v>
+      </c>
+      <c r="T31">
+        <v>1.39</v>
+      </c>
+      <c r="U31">
+        <v>1.36</v>
+      </c>
+      <c r="V31">
+        <v>1.5</v>
+      </c>
+      <c r="W31">
+        <v>1.88</v>
+      </c>
+      <c r="X31">
+        <v>1</v>
+      </c>
+      <c r="Y31">
+        <v>1.78</v>
+      </c>
+      <c r="Z31">
+        <v>1.25</v>
+      </c>
+      <c r="AA31">
+        <v>3.03</v>
+      </c>
+      <c r="AB31">
+        <v>1.7</v>
+      </c>
+      <c r="AC31">
+        <v>7.5</v>
+      </c>
+      <c r="AD31">
+        <v>2.63</v>
+      </c>
+      <c r="AE31">
+        <v>0</v>
+      </c>
+      <c r="AF31">
+        <v>1.19</v>
+      </c>
+      <c r="AG31">
+        <v>1.32</v>
+      </c>
+      <c r="AH31">
+        <v>1.65</v>
+      </c>
+      <c r="AI31">
+        <v>1.99</v>
+      </c>
+    </row>
+    <row r="32" spans="1:35">
+      <c r="A32" t="s">
+        <v>47</v>
+      </c>
+      <c r="B32" s="2">
+        <v>45121</v>
+      </c>
+      <c r="C32" t="s">
+        <v>71</v>
+      </c>
+      <c r="D32">
+        <v>25</v>
+      </c>
+      <c r="E32" t="s">
+        <v>105</v>
+      </c>
+      <c r="F32" t="s">
+        <v>142</v>
+      </c>
+      <c r="G32">
+        <v>2.92</v>
+      </c>
+      <c r="H32">
+        <v>3.1</v>
+      </c>
+      <c r="I32">
+        <v>2.5</v>
+      </c>
+      <c r="J32">
+        <v>1.08</v>
+      </c>
+      <c r="K32">
+        <v>7.15</v>
+      </c>
+      <c r="L32">
+        <v>1.46</v>
+      </c>
+      <c r="M32">
+        <v>2.65</v>
+      </c>
+      <c r="N32">
+        <v>2.42</v>
+      </c>
+      <c r="O32">
+        <v>1.54</v>
+      </c>
+      <c r="P32">
+        <v>1.51</v>
+      </c>
+      <c r="Q32">
+        <v>2.35</v>
+      </c>
+      <c r="R32">
+        <v>2.17</v>
+      </c>
+      <c r="S32">
+        <v>1.66</v>
+      </c>
+      <c r="T32">
+        <v>1.56</v>
+      </c>
+      <c r="U32">
+        <v>1.37</v>
+      </c>
+      <c r="V32">
+        <v>1.35</v>
+      </c>
+      <c r="W32">
+        <v>1.18</v>
+      </c>
+      <c r="X32">
+        <v>1.91</v>
+      </c>
+      <c r="Y32">
+        <v>1.56</v>
+      </c>
+      <c r="Z32">
+        <v>1.36</v>
+      </c>
+      <c r="AA32">
+        <v>2.92</v>
+      </c>
+      <c r="AB32">
+        <v>1.91</v>
+      </c>
+      <c r="AC32">
+        <v>7.5</v>
+      </c>
+      <c r="AD32">
+        <v>2.2</v>
+      </c>
+      <c r="AE32">
+        <v>1.32</v>
+      </c>
+      <c r="AF32">
+        <v>1.58</v>
+      </c>
+      <c r="AG32">
+        <v>2.02</v>
+      </c>
+      <c r="AH32">
+        <v>2.7</v>
+      </c>
+      <c r="AI32">
+        <v>3.8</v>
+      </c>
+    </row>
+    <row r="33" spans="1:35">
+      <c r="A33" t="s">
+        <v>49</v>
+      </c>
+      <c r="B33" s="2">
+        <v>45121</v>
+      </c>
+      <c r="C33" t="s">
+        <v>71</v>
+      </c>
+      <c r="D33">
+        <v>18</v>
+      </c>
+      <c r="E33" t="s">
+        <v>106</v>
+      </c>
+      <c r="F33" t="s">
+        <v>143</v>
+      </c>
+      <c r="G33">
+        <v>2.07</v>
+      </c>
+      <c r="H33">
+        <v>3.3</v>
+      </c>
+      <c r="I33">
+        <v>3.27</v>
+      </c>
+      <c r="J33">
+        <v>1.05</v>
+      </c>
+      <c r="K33">
+        <v>10.5</v>
+      </c>
+      <c r="L33">
+        <v>1.28</v>
+      </c>
+      <c r="M33">
+        <v>3.25</v>
+      </c>
+      <c r="N33">
+        <v>1.89</v>
+      </c>
+      <c r="O33">
+        <v>1.86</v>
+      </c>
+      <c r="P33">
+        <v>1.4</v>
+      </c>
+      <c r="Q33">
+        <v>2.7</v>
+      </c>
+      <c r="R33">
+        <v>1.75</v>
+      </c>
+      <c r="S33">
+        <v>1.95</v>
+      </c>
+      <c r="T33">
+        <v>1.29</v>
+      </c>
+      <c r="U33">
+        <v>1.29</v>
+      </c>
+      <c r="V33">
+        <v>1.6</v>
+      </c>
+      <c r="W33">
+        <v>2.38</v>
+      </c>
+      <c r="X33">
+        <v>1.44</v>
+      </c>
+      <c r="Y33">
+        <v>1.68</v>
+      </c>
+      <c r="Z33">
+        <v>1.52</v>
+      </c>
+      <c r="AA33">
+        <v>3.2</v>
+      </c>
+      <c r="AB33">
+        <v>0</v>
+      </c>
+      <c r="AC33">
+        <v>0</v>
+      </c>
+      <c r="AD33">
+        <v>0</v>
+      </c>
+      <c r="AE33">
+        <v>0</v>
+      </c>
+      <c r="AF33">
+        <v>0</v>
+      </c>
+      <c r="AG33">
+        <v>0</v>
+      </c>
+      <c r="AH33">
+        <v>0</v>
+      </c>
+      <c r="AI33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:35">
+      <c r="A34" t="s">
+        <v>48</v>
+      </c>
+      <c r="B34" s="2">
+        <v>45121</v>
+      </c>
+      <c r="C34" t="s">
+        <v>71</v>
+      </c>
+      <c r="D34">
+        <v>17</v>
+      </c>
+      <c r="E34" t="s">
+        <v>107</v>
+      </c>
+      <c r="F34" t="s">
+        <v>144</v>
+      </c>
+      <c r="G34">
+        <v>1.88</v>
+      </c>
+      <c r="H34">
+        <v>3.1</v>
+      </c>
+      <c r="I34">
+        <v>4.05</v>
+      </c>
+      <c r="J34">
+        <v>1.11</v>
+      </c>
+      <c r="K34">
+        <v>6</v>
+      </c>
+      <c r="L34">
+        <v>1.5</v>
+      </c>
+      <c r="M34">
+        <v>2.5</v>
+      </c>
+      <c r="N34">
+        <v>2.37</v>
+      </c>
+      <c r="O34">
+        <v>1.53</v>
+      </c>
+      <c r="P34">
+        <v>1.53</v>
+      </c>
+      <c r="Q34">
+        <v>2.3</v>
+      </c>
+      <c r="R34">
+        <v>2.15</v>
+      </c>
+      <c r="S34">
+        <v>1.61</v>
+      </c>
+      <c r="T34">
+        <v>1.22</v>
+      </c>
+      <c r="U34">
+        <v>1.35</v>
+      </c>
+      <c r="V34">
+        <v>1.8</v>
+      </c>
+      <c r="W34">
+        <v>1.5</v>
+      </c>
+      <c r="X34">
+        <v>0.88</v>
+      </c>
+      <c r="Y34">
+        <v>1.85</v>
+      </c>
+      <c r="Z34">
+        <v>1.3</v>
+      </c>
+      <c r="AA34">
+        <v>3.15</v>
+      </c>
+      <c r="AB34">
+        <v>1.43</v>
+      </c>
+      <c r="AC34">
+        <v>7.5</v>
+      </c>
+      <c r="AD34">
+        <v>3.75</v>
+      </c>
+      <c r="AE34">
+        <v>1.19</v>
+      </c>
+      <c r="AF34">
+        <v>1.44</v>
+      </c>
+      <c r="AG34">
+        <v>1.76</v>
+      </c>
+      <c r="AH34">
+        <v>2.15</v>
+      </c>
+      <c r="AI34">
+        <v>2.63</v>
+      </c>
+    </row>
+    <row r="35" spans="1:35">
+      <c r="A35" t="s">
+        <v>45</v>
+      </c>
+      <c r="B35" s="2">
+        <v>45121</v>
+      </c>
+      <c r="C35" t="s">
+        <v>72</v>
+      </c>
+      <c r="D35">
+        <v>1</v>
+      </c>
+      <c r="E35" t="s">
+        <v>108</v>
+      </c>
+      <c r="F35" t="s">
+        <v>145</v>
+      </c>
+      <c r="G35">
+        <v>2.08</v>
+      </c>
+      <c r="H35">
+        <v>3.25</v>
+      </c>
+      <c r="I35">
+        <v>3.9</v>
+      </c>
+      <c r="J35">
+        <v>1.03</v>
+      </c>
+      <c r="K35">
+        <v>8.300000000000001</v>
+      </c>
+      <c r="L35">
+        <v>1.32</v>
+      </c>
+      <c r="M35">
+        <v>3.04</v>
+      </c>
+      <c r="N35">
+        <v>2.05</v>
+      </c>
+      <c r="O35">
+        <v>1.78</v>
+      </c>
+      <c r="P35">
+        <v>1.43</v>
+      </c>
+      <c r="Q35">
+        <v>2.71</v>
+      </c>
+      <c r="R35">
+        <v>1.87</v>
+      </c>
+      <c r="S35">
+        <v>1.87</v>
+      </c>
+      <c r="T35">
+        <v>1.27</v>
+      </c>
+      <c r="U35">
+        <v>1.31</v>
+      </c>
+      <c r="V35">
+        <v>1.8</v>
+      </c>
+      <c r="W35">
+        <v>1.2</v>
+      </c>
+      <c r="X35">
+        <v>0.4</v>
+      </c>
+      <c r="Y35">
+        <v>1.39</v>
+      </c>
+      <c r="Z35">
+        <v>0.87</v>
+      </c>
+      <c r="AA35">
+        <v>2.26</v>
+      </c>
+      <c r="AB35">
+        <v>1.64</v>
+      </c>
+      <c r="AC35">
+        <v>8</v>
+      </c>
+      <c r="AD35">
+        <v>2.77</v>
+      </c>
+      <c r="AE35">
+        <v>1.29</v>
+      </c>
+      <c r="AF35">
+        <v>1.54</v>
+      </c>
+      <c r="AG35">
+        <v>2</v>
+      </c>
+      <c r="AH35">
+        <v>2.55</v>
+      </c>
+      <c r="AI35">
+        <v>3.3</v>
+      </c>
+    </row>
+    <row r="36" spans="1:35">
+      <c r="A36" t="s">
+        <v>35</v>
+      </c>
+      <c r="B36" s="2">
+        <v>45121</v>
+      </c>
+      <c r="C36" t="s">
+        <v>73</v>
+      </c>
+      <c r="D36">
+        <v>3</v>
+      </c>
+      <c r="E36" t="s">
+        <v>109</v>
+      </c>
+      <c r="F36" t="s">
+        <v>146</v>
+      </c>
+      <c r="G36">
+        <v>4.5</v>
+      </c>
+      <c r="H36">
+        <v>4</v>
+      </c>
+      <c r="I36">
+        <v>1.7</v>
+      </c>
+      <c r="J36">
+        <v>1.02</v>
+      </c>
+      <c r="K36">
+        <v>15</v>
+      </c>
+      <c r="L36">
+        <v>1.22</v>
+      </c>
+      <c r="M36">
+        <v>4.2</v>
+      </c>
+      <c r="N36">
+        <v>1.7</v>
+      </c>
+      <c r="O36">
+        <v>2.15</v>
+      </c>
+      <c r="P36">
+        <v>1.29</v>
+      </c>
+      <c r="Q36">
+        <v>3.3</v>
+      </c>
+      <c r="R36">
+        <v>1.7</v>
+      </c>
+      <c r="S36">
+        <v>2.1</v>
+      </c>
+      <c r="T36">
+        <v>2.2</v>
+      </c>
+      <c r="U36">
+        <v>1.18</v>
+      </c>
+      <c r="V36">
+        <v>1.18</v>
+      </c>
+      <c r="W36">
+        <v>1</v>
+      </c>
+      <c r="X36">
+        <v>1</v>
+      </c>
+      <c r="Y36">
+        <v>1.24</v>
+      </c>
+      <c r="Z36">
+        <v>1.42</v>
+      </c>
+      <c r="AA36">
+        <v>2.66</v>
+      </c>
+      <c r="AB36">
+        <v>2.91</v>
+      </c>
+      <c r="AC36">
+        <v>8.5</v>
+      </c>
+      <c r="AD36">
+        <v>1.55</v>
+      </c>
+      <c r="AE36">
+        <v>1.24</v>
+      </c>
+      <c r="AF36">
+        <v>1.54</v>
+      </c>
+      <c r="AG36">
+        <v>1.85</v>
+      </c>
+      <c r="AH36">
+        <v>2.31</v>
+      </c>
+      <c r="AI36">
+        <v>3.08</v>
+      </c>
+    </row>
+    <row r="37" spans="1:35">
+      <c r="A37" t="s">
+        <v>53</v>
+      </c>
+      <c r="B37" s="2">
+        <v>45121</v>
+      </c>
+      <c r="C37" t="s">
+        <v>73</v>
+      </c>
+      <c r="D37">
+        <v>0</v>
+      </c>
+      <c r="E37" t="s">
+        <v>110</v>
+      </c>
+      <c r="F37" t="s">
+        <v>147</v>
+      </c>
+      <c r="G37">
+        <v>1.95</v>
+      </c>
+      <c r="H37">
+        <v>3.5</v>
+      </c>
+      <c r="I37">
+        <v>3.29</v>
+      </c>
+      <c r="J37">
+        <v>1.05</v>
+      </c>
+      <c r="K37">
+        <v>9</v>
+      </c>
+      <c r="L37">
+        <v>1.29</v>
+      </c>
+      <c r="M37">
+        <v>3.5</v>
+      </c>
+      <c r="N37">
+        <v>1.8</v>
+      </c>
+      <c r="O37">
+        <v>1.91</v>
+      </c>
+      <c r="P37">
+        <v>1.36</v>
+      </c>
+      <c r="Q37">
+        <v>3</v>
+      </c>
+      <c r="R37">
+        <v>1.73</v>
+      </c>
+      <c r="S37">
+        <v>2</v>
+      </c>
+      <c r="T37">
+        <v>1.25</v>
+      </c>
+      <c r="U37">
+        <v>1.29</v>
+      </c>
+      <c r="V37">
+        <v>1.8</v>
+      </c>
+      <c r="W37">
+        <v>2.11</v>
+      </c>
+      <c r="X37">
+        <v>1.3</v>
+      </c>
+      <c r="Y37">
+        <v>1.52</v>
+      </c>
+      <c r="Z37">
+        <v>1.47</v>
+      </c>
+      <c r="AA37">
+        <v>2.99</v>
+      </c>
+      <c r="AB37">
+        <v>0</v>
+      </c>
+      <c r="AC37">
+        <v>0</v>
+      </c>
+      <c r="AD37">
+        <v>0</v>
+      </c>
+      <c r="AE37">
+        <v>0</v>
+      </c>
+      <c r="AF37">
+        <v>0</v>
+      </c>
+      <c r="AG37">
+        <v>0</v>
+      </c>
+      <c r="AH37">
+        <v>0</v>
+      </c>
+      <c r="AI37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:35">
+      <c r="A38" t="s">
+        <v>43</v>
+      </c>
+      <c r="B38" s="2">
+        <v>45121</v>
+      </c>
+      <c r="C38" t="s">
+        <v>74</v>
+      </c>
+      <c r="D38">
+        <v>4</v>
+      </c>
+      <c r="E38" t="s">
+        <v>111</v>
+      </c>
+      <c r="F38" t="s">
+        <v>148</v>
+      </c>
+      <c r="G38">
+        <v>1.19</v>
+      </c>
+      <c r="H38">
+        <v>6.24</v>
+      </c>
+      <c r="I38">
+        <v>10.35</v>
+      </c>
+      <c r="J38">
+        <v>1.01</v>
+      </c>
+      <c r="K38">
+        <v>17</v>
+      </c>
+      <c r="L38">
+        <v>1.18</v>
+      </c>
+      <c r="M38">
+        <v>4.1</v>
+      </c>
+      <c r="N38">
+        <v>1.53</v>
+      </c>
+      <c r="O38">
+        <v>2.25</v>
+      </c>
+      <c r="P38">
+        <v>1.25</v>
+      </c>
+      <c r="Q38">
+        <v>3.5</v>
+      </c>
+      <c r="R38">
+        <v>2.2</v>
+      </c>
+      <c r="S38">
+        <v>1.64</v>
+      </c>
+      <c r="T38">
+        <v>1.04</v>
+      </c>
+      <c r="U38">
+        <v>1.08</v>
+      </c>
+      <c r="V38">
+        <v>4.28</v>
+      </c>
+      <c r="W38">
+        <v>2.7</v>
+      </c>
+      <c r="X38">
+        <v>0.4</v>
+      </c>
+      <c r="Y38">
+        <v>1.88</v>
+      </c>
+      <c r="Z38">
+        <v>1.11</v>
+      </c>
+      <c r="AA38">
+        <v>2.99</v>
+      </c>
+      <c r="AB38">
+        <v>1.08</v>
+      </c>
+      <c r="AC38">
+        <v>13</v>
+      </c>
+      <c r="AD38">
+        <v>8.5</v>
+      </c>
+      <c r="AE38">
+        <v>1.21</v>
+      </c>
+      <c r="AF38">
+        <v>1.34</v>
+      </c>
+      <c r="AG38">
+        <v>1.67</v>
+      </c>
+      <c r="AH38">
+        <v>2.1</v>
+      </c>
+      <c r="AI38">
+        <v>2.75</v>
       </c>
     </row>
   </sheetData>

--- a/Jogos_do_Dia/2023-07-14_FutPythonTrader_Jogos_do_Dia.xlsx
+++ b/Jogos_do_Dia/2023-07-14_FutPythonTrader_Jogos_do_Dia.xlsx
@@ -139,6 +139,9 @@
     <t>Uruguay Segunda División</t>
   </si>
   <si>
+    <t>Argentina Prim B Nacional</t>
+  </si>
+  <si>
     <t>Republic of Ireland Premier Division</t>
   </si>
   <si>
@@ -148,30 +151,27 @@
     <t>Peru Primera División</t>
   </si>
   <si>
+    <t>Colombia Categoria Primera A</t>
+  </si>
+  <si>
     <t>Chile Primera División</t>
   </si>
   <si>
-    <t>Colombia Categoria Primera A</t>
-  </si>
-  <si>
-    <t>Argentina Prim B Nacional</t>
+    <t>Brazil Serie B</t>
   </si>
   <si>
     <t>Argentina Primera División</t>
   </si>
   <si>
-    <t>Brazil Serie B</t>
+    <t>Venezuela Primera División</t>
+  </si>
+  <si>
+    <t>Uruguay Primera División</t>
   </si>
   <si>
     <t>Chile Primera B</t>
   </si>
   <si>
-    <t>Venezuela Primera División</t>
-  </si>
-  <si>
-    <t>Uruguay Primera División</t>
-  </si>
-  <si>
     <t>Canada Canadian Premier League</t>
   </si>
   <si>
@@ -271,6 +271,9 @@
     <t>Levski Krumovgrad</t>
   </si>
   <si>
+    <t>Nueva Chicago</t>
+  </si>
+  <si>
     <t>Rapid Bucureşti</t>
   </si>
   <si>
@@ -286,34 +289,34 @@
     <t>UTC Cajamarca</t>
   </si>
   <si>
+    <t>Envigado</t>
+  </si>
+  <si>
     <t>Cobresal</t>
   </si>
   <si>
-    <t>Envigado</t>
-  </si>
-  <si>
-    <t>Nueva Chicago</t>
+    <t>CRB</t>
   </si>
   <si>
     <t>Godoy Cruz</t>
   </si>
   <si>
-    <t>CRB</t>
+    <t>Botafogo SP</t>
+  </si>
+  <si>
+    <t>Hermanos Colmenares</t>
+  </si>
+  <si>
+    <t>Sarmiento</t>
+  </si>
+  <si>
+    <t>Defensor Sporting</t>
   </si>
   <si>
     <t>Univ. Concepción</t>
   </si>
   <si>
-    <t>Hermanos Colmenares</t>
-  </si>
-  <si>
-    <t>Sarmiento</t>
-  </si>
-  <si>
-    <t>Botafogo SP</t>
-  </si>
-  <si>
-    <t>Defensor Sporting</t>
+    <t>San Luis</t>
   </si>
   <si>
     <t>York9 FC</t>
@@ -328,27 +331,24 @@
     <t>UCV</t>
   </si>
   <si>
+    <t>Huracán</t>
+  </si>
+  <si>
     <t>Atlético GO</t>
   </si>
   <si>
-    <t>Huracán</t>
-  </si>
-  <si>
-    <t>San Luis</t>
-  </si>
-  <si>
     <t>Sampaio Corrêa</t>
   </si>
   <si>
     <t>Atlético Huila</t>
   </si>
   <si>
+    <t>Colorado Springs</t>
+  </si>
+  <si>
     <t>Mazatlán</t>
   </si>
   <si>
-    <t>Colorado Springs</t>
-  </si>
-  <si>
     <t>Universitario</t>
   </si>
   <si>
@@ -382,6 +382,9 @@
     <t>Ludogorets</t>
   </si>
   <si>
+    <t>Almagro</t>
+  </si>
+  <si>
     <t>Sepsi</t>
   </si>
   <si>
@@ -397,34 +400,34 @@
     <t>Alianza Atlético</t>
   </si>
   <si>
+    <t>Atlético Bucaramanga</t>
+  </si>
+  <si>
     <t>Huachipato</t>
   </si>
   <si>
-    <t>Atlético Bucaramanga</t>
-  </si>
-  <si>
-    <t>Almagro</t>
+    <t>Avaí</t>
   </si>
   <si>
     <t>Defensa y Justicia</t>
   </si>
   <si>
-    <t>Avaí</t>
+    <t>Chapecoense</t>
+  </si>
+  <si>
+    <t>Rayo Zuliano</t>
+  </si>
+  <si>
+    <t>Vélez Sarsfield</t>
+  </si>
+  <si>
+    <t>Danubio</t>
   </si>
   <si>
     <t>Recoleta</t>
   </si>
   <si>
-    <t>Rayo Zuliano</t>
-  </si>
-  <si>
-    <t>Vélez Sarsfield</t>
-  </si>
-  <si>
-    <t>Chapecoense</t>
-  </si>
-  <si>
-    <t>Danubio</t>
+    <t>Deportes Iquique</t>
   </si>
   <si>
     <t>Pacific FC</t>
@@ -439,25 +442,22 @@
     <t>Zamora</t>
   </si>
   <si>
+    <t>Talleres Córdoba</t>
+  </si>
+  <si>
     <t>Sport Recife</t>
   </si>
   <si>
-    <t>Talleres Córdoba</t>
-  </si>
-  <si>
-    <t>Deportes Iquique</t>
-  </si>
-  <si>
     <t>Ituano</t>
   </si>
   <si>
     <t>Unión Magdalena</t>
   </si>
   <si>
+    <t>San Diego Loyal</t>
+  </si>
+  <si>
     <t>Monterrey</t>
-  </si>
-  <si>
-    <t>San Diego Loyal</t>
   </si>
   <si>
     <t>Unión Comercio</t>
@@ -1006,7 +1006,7 @@
         <v>3</v>
       </c>
       <c r="X2">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="Y2">
         <v>1.81</v>
@@ -1062,13 +1062,13 @@
         <v>113</v>
       </c>
       <c r="G3">
-        <v>2.6</v>
+        <v>3.05</v>
       </c>
       <c r="H3">
-        <v>2.98</v>
+        <v>3</v>
       </c>
       <c r="I3">
-        <v>2.5</v>
+        <v>2.26</v>
       </c>
       <c r="J3">
         <v>1.09</v>
@@ -1083,10 +1083,10 @@
         <v>2.38</v>
       </c>
       <c r="N3">
-        <v>2.35</v>
+        <v>2.55</v>
       </c>
       <c r="O3">
-        <v>1.53</v>
+        <v>1.47</v>
       </c>
       <c r="P3">
         <v>1.53</v>
@@ -1169,13 +1169,13 @@
         <v>114</v>
       </c>
       <c r="G4">
-        <v>2.03</v>
+        <v>2.3</v>
       </c>
       <c r="H4">
-        <v>3.18</v>
+        <v>2.9</v>
       </c>
       <c r="I4">
-        <v>3.74</v>
+        <v>3</v>
       </c>
       <c r="J4">
         <v>1.04</v>
@@ -1193,7 +1193,7 @@
         <v>2.2</v>
       </c>
       <c r="O4">
-        <v>1.63</v>
+        <v>1.53</v>
       </c>
       <c r="P4">
         <v>1.5</v>
@@ -1232,28 +1232,28 @@
         <v>0</v>
       </c>
       <c r="AB4">
-        <v>0</v>
+        <v>1.74</v>
       </c>
       <c r="AC4">
-        <v>0</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="AD4">
-        <v>0</v>
+        <v>2.48</v>
       </c>
       <c r="AE4">
-        <v>0</v>
+        <v>1.39</v>
       </c>
       <c r="AF4">
-        <v>0</v>
+        <v>1.72</v>
       </c>
       <c r="AG4">
-        <v>0</v>
+        <v>2.19</v>
       </c>
       <c r="AH4">
-        <v>0</v>
+        <v>2.93</v>
       </c>
       <c r="AI4">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:35">
@@ -1276,13 +1276,13 @@
         <v>115</v>
       </c>
       <c r="G5">
-        <v>1.39</v>
+        <v>1.3</v>
       </c>
       <c r="H5">
         <v>4.75</v>
       </c>
       <c r="I5">
-        <v>7.63</v>
+        <v>9</v>
       </c>
       <c r="J5">
         <v>1.04</v>
@@ -1297,10 +1297,10 @@
         <v>4</v>
       </c>
       <c r="N5">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="O5">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="P5">
         <v>1.3</v>
@@ -1383,13 +1383,13 @@
         <v>116</v>
       </c>
       <c r="G6">
-        <v>2.53</v>
+        <v>1.91</v>
       </c>
       <c r="H6">
-        <v>2.94</v>
+        <v>3.1</v>
       </c>
       <c r="I6">
-        <v>3.19</v>
+        <v>3.8</v>
       </c>
       <c r="J6">
         <v>1.08</v>
@@ -1404,10 +1404,10 @@
         <v>2.8</v>
       </c>
       <c r="N6">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="O6">
-        <v>1.6</v>
+        <v>1.57</v>
       </c>
       <c r="P6">
         <v>1.47</v>
@@ -1490,13 +1490,13 @@
         <v>117</v>
       </c>
       <c r="G7">
-        <v>3</v>
+        <v>5.25</v>
       </c>
       <c r="H7">
-        <v>2.83</v>
+        <v>3.2</v>
       </c>
       <c r="I7">
-        <v>2.61</v>
+        <v>1.61</v>
       </c>
       <c r="J7">
         <v>1.09</v>
@@ -1505,13 +1505,13 @@
         <v>7.5</v>
       </c>
       <c r="L7">
-        <v>1.45</v>
+        <v>1.5</v>
       </c>
       <c r="M7">
-        <v>2.55</v>
+        <v>2.5</v>
       </c>
       <c r="N7">
-        <v>2.4</v>
+        <v>2.37</v>
       </c>
       <c r="O7">
         <v>1.5</v>
@@ -1597,13 +1597,13 @@
         <v>118</v>
       </c>
       <c r="G8">
-        <v>2.78</v>
+        <v>2.6</v>
       </c>
       <c r="H8">
-        <v>2.92</v>
+        <v>2.9</v>
       </c>
       <c r="I8">
-        <v>2.72</v>
+        <v>2.55</v>
       </c>
       <c r="J8">
         <v>1.07</v>
@@ -1618,10 +1618,10 @@
         <v>2.8</v>
       </c>
       <c r="N8">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="O8">
-        <v>1.6</v>
+        <v>1.57</v>
       </c>
       <c r="P8">
         <v>1.46</v>
@@ -1704,13 +1704,13 @@
         <v>119</v>
       </c>
       <c r="G9">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="H9">
         <v>3.2</v>
       </c>
       <c r="I9">
-        <v>4.3</v>
+        <v>4.33</v>
       </c>
       <c r="J9">
         <v>1.06</v>
@@ -1725,10 +1725,10 @@
         <v>2.93</v>
       </c>
       <c r="N9">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="O9">
-        <v>1.6</v>
+        <v>1.57</v>
       </c>
       <c r="P9">
         <v>1.46</v>
@@ -1811,13 +1811,13 @@
         <v>120</v>
       </c>
       <c r="G10">
-        <v>1.48</v>
+        <v>1.3</v>
       </c>
       <c r="H10">
-        <v>4.1</v>
+        <v>4.4</v>
       </c>
       <c r="I10">
-        <v>6.2</v>
+        <v>9.5</v>
       </c>
       <c r="J10">
         <v>1.04</v>
@@ -1832,10 +1832,10 @@
         <v>3.3</v>
       </c>
       <c r="N10">
-        <v>1.99</v>
+        <v>1.8</v>
       </c>
       <c r="O10">
-        <v>1.79</v>
+        <v>1.85</v>
       </c>
       <c r="P10">
         <v>1.39</v>
@@ -1918,13 +1918,13 @@
         <v>121</v>
       </c>
       <c r="G11">
-        <v>8.699999999999999</v>
+        <v>10</v>
       </c>
       <c r="H11">
-        <v>5.6</v>
+        <v>5.4</v>
       </c>
       <c r="I11">
-        <v>1.21</v>
+        <v>1.22</v>
       </c>
       <c r="J11">
         <v>1</v>
@@ -1939,10 +1939,10 @@
         <v>4.33</v>
       </c>
       <c r="N11">
-        <v>1.62</v>
+        <v>1.68</v>
       </c>
       <c r="O11">
-        <v>2.16</v>
+        <v>2.12</v>
       </c>
       <c r="P11">
         <v>1.3</v>
@@ -1981,33 +1981,33 @@
         <v>0</v>
       </c>
       <c r="AB11">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="AC11">
-        <v>0</v>
+        <v>16.5</v>
       </c>
       <c r="AD11">
-        <v>0</v>
+        <v>1.09</v>
       </c>
       <c r="AE11">
         <v>0</v>
       </c>
       <c r="AF11">
-        <v>0</v>
+        <v>1.23</v>
       </c>
       <c r="AG11">
-        <v>0</v>
+        <v>1.44</v>
       </c>
       <c r="AH11">
-        <v>0</v>
+        <v>1.75</v>
       </c>
       <c r="AI11">
-        <v>0</v>
+        <v>2.17</v>
       </c>
     </row>
     <row r="12" spans="1:35">
       <c r="A12" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="B12" s="2">
         <v>45121</v>
@@ -2016,7 +2016,7 @@
         <v>60</v>
       </c>
       <c r="D12">
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="E12" t="s">
         <v>85</v>
@@ -2025,105 +2025,105 @@
         <v>122</v>
       </c>
       <c r="G12">
-        <v>2.02</v>
+        <v>2.15</v>
       </c>
       <c r="H12">
-        <v>3.31</v>
+        <v>2.65</v>
       </c>
       <c r="I12">
-        <v>3.86</v>
+        <v>3.6</v>
       </c>
       <c r="J12">
-        <v>1.08</v>
+        <v>1.12</v>
       </c>
       <c r="K12">
-        <v>7</v>
+        <v>5.05</v>
       </c>
       <c r="L12">
-        <v>1.4</v>
+        <v>1.67</v>
       </c>
       <c r="M12">
-        <v>2.8</v>
+        <v>2</v>
       </c>
       <c r="N12">
-        <v>2.2</v>
+        <v>2.9</v>
       </c>
       <c r="O12">
-        <v>1.63</v>
+        <v>1.38</v>
       </c>
       <c r="P12">
-        <v>1.44</v>
+        <v>1.74</v>
       </c>
       <c r="Q12">
-        <v>2.63</v>
+        <v>2.09</v>
       </c>
       <c r="R12">
+        <v>2.57</v>
+      </c>
+      <c r="S12">
+        <v>1.48</v>
+      </c>
+      <c r="T12">
+        <v>1.25</v>
+      </c>
+      <c r="U12">
+        <v>1.41</v>
+      </c>
+      <c r="V12">
+        <v>1.67</v>
+      </c>
+      <c r="W12">
         <v>1.91</v>
       </c>
-      <c r="S12">
-        <v>1.8</v>
-      </c>
-      <c r="T12">
-        <v>1.2</v>
-      </c>
-      <c r="U12">
-        <v>1.25</v>
-      </c>
-      <c r="V12">
-        <v>1.68</v>
-      </c>
-      <c r="W12">
-        <v>0</v>
-      </c>
       <c r="X12">
-        <v>0</v>
+        <v>0.55</v>
       </c>
       <c r="Y12">
-        <v>0</v>
+        <v>1.32</v>
       </c>
       <c r="Z12">
-        <v>0</v>
+        <v>1.16</v>
       </c>
       <c r="AA12">
-        <v>0</v>
+        <v>2.48</v>
       </c>
       <c r="AB12">
-        <v>1.64</v>
+        <v>2.16</v>
       </c>
       <c r="AC12">
         <v>8</v>
       </c>
       <c r="AD12">
-        <v>2.77</v>
+        <v>1.98</v>
       </c>
       <c r="AE12">
-        <v>1.35</v>
+        <v>1.61</v>
       </c>
       <c r="AF12">
-        <v>1.7</v>
+        <v>2.05</v>
       </c>
       <c r="AG12">
-        <v>2.17</v>
+        <v>2.6</v>
       </c>
       <c r="AH12">
-        <v>2.95</v>
+        <v>3.84</v>
       </c>
       <c r="AI12">
-        <v>4.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:35">
       <c r="A13" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="B13" s="2">
         <v>45121</v>
       </c>
       <c r="C13" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D13">
-        <v>24</v>
+        <v>1</v>
       </c>
       <c r="E13" t="s">
         <v>86</v>
@@ -2132,96 +2132,96 @@
         <v>123</v>
       </c>
       <c r="G13">
-        <v>6.88</v>
+        <v>1.85</v>
       </c>
       <c r="H13">
-        <v>4.61</v>
+        <v>3.2</v>
       </c>
       <c r="I13">
-        <v>1.45</v>
+        <v>4</v>
       </c>
       <c r="J13">
-        <v>1.03</v>
+        <v>1.08</v>
       </c>
       <c r="K13">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="L13">
-        <v>1.22</v>
+        <v>1.4</v>
       </c>
       <c r="M13">
-        <v>3.8</v>
+        <v>2.8</v>
       </c>
       <c r="N13">
-        <v>1.74</v>
+        <v>2.05</v>
       </c>
       <c r="O13">
-        <v>2</v>
+        <v>1.61</v>
       </c>
       <c r="P13">
-        <v>1.35</v>
+        <v>1.44</v>
       </c>
       <c r="Q13">
-        <v>3.28</v>
+        <v>2.63</v>
       </c>
       <c r="R13">
-        <v>1.9</v>
+        <v>1.91</v>
       </c>
       <c r="S13">
         <v>1.8</v>
       </c>
       <c r="T13">
-        <v>2.7</v>
+        <v>1.2</v>
       </c>
       <c r="U13">
-        <v>1.19</v>
+        <v>1.25</v>
       </c>
       <c r="V13">
-        <v>1.11</v>
+        <v>1.68</v>
       </c>
       <c r="W13">
-        <v>0.73</v>
+        <v>0</v>
       </c>
       <c r="X13">
-        <v>1.18</v>
+        <v>0</v>
       </c>
       <c r="Y13">
-        <v>0.95</v>
+        <v>0</v>
       </c>
       <c r="Z13">
-        <v>1.18</v>
+        <v>0</v>
       </c>
       <c r="AA13">
-        <v>2.13</v>
+        <v>0</v>
       </c>
       <c r="AB13">
-        <v>4.86</v>
+        <v>1.64</v>
       </c>
       <c r="AC13">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AD13">
-        <v>1.26</v>
+        <v>2.77</v>
       </c>
       <c r="AE13">
-        <v>1.24</v>
+        <v>1.35</v>
       </c>
       <c r="AF13">
-        <v>1.46</v>
+        <v>1.7</v>
       </c>
       <c r="AG13">
-        <v>1.83</v>
+        <v>2.17</v>
       </c>
       <c r="AH13">
-        <v>2.32</v>
+        <v>2.95</v>
       </c>
       <c r="AI13">
-        <v>3.08</v>
+        <v>4.5</v>
       </c>
     </row>
     <row r="14" spans="1:35">
       <c r="A14" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B14" s="2">
         <v>45121</v>
@@ -2239,91 +2239,91 @@
         <v>124</v>
       </c>
       <c r="G14">
-        <v>2.51</v>
+        <v>4</v>
       </c>
       <c r="H14">
-        <v>2.92</v>
+        <v>3.6</v>
       </c>
       <c r="I14">
-        <v>3.14</v>
+        <v>1.73</v>
       </c>
       <c r="J14">
-        <v>1.07</v>
+        <v>1.03</v>
       </c>
       <c r="K14">
-        <v>6.5</v>
+        <v>12</v>
       </c>
       <c r="L14">
-        <v>1.44</v>
+        <v>1.22</v>
       </c>
       <c r="M14">
-        <v>2.37</v>
+        <v>3.8</v>
       </c>
       <c r="N14">
-        <v>2.48</v>
+        <v>1.57</v>
       </c>
       <c r="O14">
-        <v>1.49</v>
+        <v>2.15</v>
       </c>
       <c r="P14">
-        <v>1.5</v>
+        <v>1.35</v>
       </c>
       <c r="Q14">
-        <v>2.4</v>
+        <v>3.28</v>
       </c>
       <c r="R14">
-        <v>2.05</v>
+        <v>1.9</v>
       </c>
       <c r="S14">
-        <v>1.65</v>
+        <v>1.8</v>
       </c>
       <c r="T14">
-        <v>1.39</v>
+        <v>2.7</v>
       </c>
       <c r="U14">
-        <v>1.35</v>
+        <v>1.19</v>
       </c>
       <c r="V14">
-        <v>1.5</v>
+        <v>1.11</v>
       </c>
       <c r="W14">
-        <v>1.67</v>
+        <v>0.73</v>
       </c>
       <c r="X14">
-        <v>1.5</v>
+        <v>1.18</v>
       </c>
       <c r="Y14">
-        <v>1.17</v>
+        <v>0.95</v>
       </c>
       <c r="Z14">
-        <v>1.14</v>
+        <v>1.18</v>
       </c>
       <c r="AA14">
-        <v>2.31</v>
+        <v>2.13</v>
       </c>
       <c r="AB14">
-        <v>2.39</v>
+        <v>4.86</v>
       </c>
       <c r="AC14">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AD14">
-        <v>1.82</v>
+        <v>1.26</v>
       </c>
       <c r="AE14">
-        <v>1.36</v>
+        <v>1.24</v>
       </c>
       <c r="AF14">
-        <v>1.66</v>
+        <v>1.46</v>
       </c>
       <c r="AG14">
-        <v>1.98</v>
+        <v>1.83</v>
       </c>
       <c r="AH14">
-        <v>2.79</v>
+        <v>2.32</v>
       </c>
       <c r="AI14">
-        <v>3.8</v>
+        <v>3.08</v>
       </c>
     </row>
     <row r="15" spans="1:35">
@@ -2334,10 +2334,10 @@
         <v>45121</v>
       </c>
       <c r="C15" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D15">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="E15" t="s">
         <v>88</v>
@@ -2346,91 +2346,91 @@
         <v>125</v>
       </c>
       <c r="G15">
-        <v>4.31</v>
+        <v>2.5</v>
       </c>
       <c r="H15">
-        <v>4.37</v>
+        <v>2.8</v>
       </c>
       <c r="I15">
+        <v>2.87</v>
+      </c>
+      <c r="J15">
+        <v>1.07</v>
+      </c>
+      <c r="K15">
+        <v>6.5</v>
+      </c>
+      <c r="L15">
+        <v>1.44</v>
+      </c>
+      <c r="M15">
+        <v>2.37</v>
+      </c>
+      <c r="N15">
+        <v>2.48</v>
+      </c>
+      <c r="O15">
+        <v>1.49</v>
+      </c>
+      <c r="P15">
+        <v>1.5</v>
+      </c>
+      <c r="Q15">
+        <v>2.4</v>
+      </c>
+      <c r="R15">
+        <v>2.05</v>
+      </c>
+      <c r="S15">
         <v>1.65</v>
       </c>
-      <c r="J15">
-        <v>1.02</v>
-      </c>
-      <c r="K15">
-        <v>13</v>
-      </c>
-      <c r="L15">
-        <v>1.12</v>
-      </c>
-      <c r="M15">
-        <v>5.5</v>
-      </c>
-      <c r="N15">
+      <c r="T15">
         <v>1.39</v>
       </c>
-      <c r="O15">
-        <v>2.77</v>
-      </c>
-      <c r="P15">
-        <v>1.22</v>
-      </c>
-      <c r="Q15">
-        <v>4</v>
-      </c>
-      <c r="R15">
-        <v>1.45</v>
-      </c>
-      <c r="S15">
-        <v>2.6</v>
-      </c>
-      <c r="T15">
-        <v>2.3</v>
-      </c>
       <c r="U15">
-        <v>1.16</v>
+        <v>1.35</v>
       </c>
       <c r="V15">
-        <v>1.15</v>
+        <v>1.5</v>
       </c>
       <c r="W15">
-        <v>1.86</v>
+        <v>1.67</v>
       </c>
       <c r="X15">
-        <v>1.75</v>
+        <v>1.5</v>
       </c>
       <c r="Y15">
-        <v>1.62</v>
+        <v>1.17</v>
       </c>
       <c r="Z15">
-        <v>1.52</v>
+        <v>1.14</v>
       </c>
       <c r="AA15">
-        <v>3.14</v>
+        <v>2.31</v>
       </c>
       <c r="AB15">
-        <v>2.9</v>
+        <v>2.39</v>
       </c>
       <c r="AC15">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AD15">
-        <v>1.55</v>
+        <v>1.82</v>
       </c>
       <c r="AE15">
-        <v>1.12</v>
+        <v>1.36</v>
       </c>
       <c r="AF15">
-        <v>1.23</v>
+        <v>1.66</v>
       </c>
       <c r="AG15">
-        <v>1.42</v>
+        <v>1.98</v>
       </c>
       <c r="AH15">
-        <v>1.8</v>
+        <v>2.79</v>
       </c>
       <c r="AI15">
-        <v>2.04</v>
+        <v>3.8</v>
       </c>
     </row>
     <row r="16" spans="1:35">
@@ -2441,10 +2441,10 @@
         <v>45121</v>
       </c>
       <c r="C16" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D16">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="E16" t="s">
         <v>89</v>
@@ -2453,91 +2453,91 @@
         <v>126</v>
       </c>
       <c r="G16">
-        <v>1.74</v>
+        <v>4.6</v>
       </c>
       <c r="H16">
-        <v>3.64</v>
+        <v>4</v>
       </c>
       <c r="I16">
-        <v>4.15</v>
+        <v>1.57</v>
       </c>
       <c r="J16">
-        <v>1.04</v>
+        <v>1.02</v>
       </c>
       <c r="K16">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="L16">
-        <v>1.27</v>
+        <v>1.12</v>
       </c>
       <c r="M16">
-        <v>3.45</v>
+        <v>5.5</v>
       </c>
       <c r="N16">
-        <v>1.92</v>
+        <v>1.42</v>
       </c>
       <c r="O16">
-        <v>1.81</v>
+        <v>2.75</v>
       </c>
       <c r="P16">
-        <v>1.38</v>
+        <v>1.22</v>
       </c>
       <c r="Q16">
-        <v>2.8</v>
+        <v>4</v>
       </c>
       <c r="R16">
-        <v>1.78</v>
+        <v>1.45</v>
       </c>
       <c r="S16">
-        <v>1.95</v>
+        <v>2.6</v>
       </c>
       <c r="T16">
-        <v>1.22</v>
+        <v>2.3</v>
       </c>
       <c r="U16">
-        <v>1.25</v>
+        <v>1.16</v>
       </c>
       <c r="V16">
-        <v>1.9</v>
+        <v>1.15</v>
       </c>
       <c r="W16">
-        <v>1.7</v>
+        <v>1.86</v>
       </c>
       <c r="X16">
-        <v>0.5</v>
+        <v>1.75</v>
       </c>
       <c r="Y16">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="Z16">
-        <v>1.34</v>
+        <v>1.52</v>
       </c>
       <c r="AA16">
-        <v>2.91</v>
+        <v>3.14</v>
       </c>
       <c r="AB16">
-        <v>1.22</v>
+        <v>2.9</v>
       </c>
       <c r="AC16">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="AD16">
-        <v>5</v>
+        <v>1.55</v>
       </c>
       <c r="AE16">
-        <v>0</v>
+        <v>1.12</v>
       </c>
       <c r="AF16">
-        <v>1.25</v>
+        <v>1.23</v>
       </c>
       <c r="AG16">
         <v>1.42</v>
       </c>
       <c r="AH16">
-        <v>1.73</v>
+        <v>1.8</v>
       </c>
       <c r="AI16">
-        <v>2.17</v>
+        <v>2.04</v>
       </c>
     </row>
     <row r="17" spans="1:35">
@@ -2548,10 +2548,10 @@
         <v>45121</v>
       </c>
       <c r="C17" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D17">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="E17" t="s">
         <v>90</v>
@@ -2560,91 +2560,91 @@
         <v>127</v>
       </c>
       <c r="G17">
-        <v>3.05</v>
+        <v>1.83</v>
       </c>
       <c r="H17">
-        <v>2.02</v>
+        <v>3.3</v>
       </c>
       <c r="I17">
-        <v>3.52</v>
+        <v>3.9</v>
       </c>
       <c r="J17">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="K17">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="L17">
-        <v>1.29</v>
+        <v>1.27</v>
       </c>
       <c r="M17">
-        <v>3.5</v>
+        <v>3.45</v>
       </c>
       <c r="N17">
-        <v>1.79</v>
+        <v>1.87</v>
       </c>
       <c r="O17">
-        <v>1.91</v>
+        <v>1.75</v>
       </c>
       <c r="P17">
-        <v>1.36</v>
+        <v>1.38</v>
       </c>
       <c r="Q17">
-        <v>3</v>
+        <v>2.8</v>
       </c>
       <c r="R17">
+        <v>1.78</v>
+      </c>
+      <c r="S17">
+        <v>1.95</v>
+      </c>
+      <c r="T17">
+        <v>1.22</v>
+      </c>
+      <c r="U17">
+        <v>1.25</v>
+      </c>
+      <c r="V17">
+        <v>1.9</v>
+      </c>
+      <c r="W17">
+        <v>1.7</v>
+      </c>
+      <c r="X17">
+        <v>0.5</v>
+      </c>
+      <c r="Y17">
+        <v>1.57</v>
+      </c>
+      <c r="Z17">
+        <v>1.34</v>
+      </c>
+      <c r="AA17">
+        <v>2.91</v>
+      </c>
+      <c r="AB17">
+        <v>1.22</v>
+      </c>
+      <c r="AC17">
+        <v>11</v>
+      </c>
+      <c r="AD17">
+        <v>5</v>
+      </c>
+      <c r="AE17">
+        <v>0</v>
+      </c>
+      <c r="AF17">
+        <v>1.25</v>
+      </c>
+      <c r="AG17">
+        <v>1.42</v>
+      </c>
+      <c r="AH17">
         <v>1.73</v>
       </c>
-      <c r="S17">
-        <v>2</v>
-      </c>
-      <c r="T17">
-        <v>1.25</v>
-      </c>
-      <c r="U17">
-        <v>1.29</v>
-      </c>
-      <c r="V17">
-        <v>1.83</v>
-      </c>
-      <c r="W17">
-        <v>2.5</v>
-      </c>
-      <c r="X17">
-        <v>2</v>
-      </c>
-      <c r="Y17">
-        <v>1.74</v>
-      </c>
-      <c r="Z17">
-        <v>1.45</v>
-      </c>
-      <c r="AA17">
-        <v>3.19</v>
-      </c>
-      <c r="AB17">
-        <v>1.69</v>
-      </c>
-      <c r="AC17">
-        <v>8</v>
-      </c>
-      <c r="AD17">
-        <v>2.63</v>
-      </c>
-      <c r="AE17">
-        <v>1.21</v>
-      </c>
-      <c r="AF17">
-        <v>1.34</v>
-      </c>
-      <c r="AG17">
-        <v>1.6</v>
-      </c>
-      <c r="AH17">
-        <v>2.07</v>
-      </c>
       <c r="AI17">
-        <v>2.7</v>
+        <v>2.17</v>
       </c>
     </row>
     <row r="18" spans="1:35">
@@ -2667,13 +2667,13 @@
         <v>128</v>
       </c>
       <c r="G18">
-        <v>2.31</v>
+        <v>2.2</v>
       </c>
       <c r="H18">
-        <v>3.09</v>
+        <v>3</v>
       </c>
       <c r="I18">
-        <v>3.49</v>
+        <v>3</v>
       </c>
       <c r="J18">
         <v>1.06</v>
@@ -2688,10 +2688,10 @@
         <v>3</v>
       </c>
       <c r="N18">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="O18">
-        <v>1.68</v>
+        <v>1.6</v>
       </c>
       <c r="P18">
         <v>1.44</v>
@@ -2762,10 +2762,10 @@
         <v>45121</v>
       </c>
       <c r="C19" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D19">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="E19" t="s">
         <v>92</v>
@@ -2774,91 +2774,91 @@
         <v>129</v>
       </c>
       <c r="G19">
-        <v>2.2</v>
+        <v>1.83</v>
       </c>
       <c r="H19">
-        <v>2.73</v>
+        <v>3.3</v>
       </c>
       <c r="I19">
-        <v>3.35</v>
+        <v>3.7</v>
       </c>
       <c r="J19">
-        <v>1.12</v>
+        <v>1.05</v>
       </c>
       <c r="K19">
-        <v>5.05</v>
+        <v>9</v>
       </c>
       <c r="L19">
-        <v>1.7</v>
+        <v>1.29</v>
       </c>
       <c r="M19">
-        <v>2.05</v>
+        <v>3.5</v>
       </c>
       <c r="N19">
-        <v>3.2</v>
+        <v>1.75</v>
       </c>
       <c r="O19">
-        <v>1.3</v>
+        <v>1.87</v>
       </c>
       <c r="P19">
-        <v>1.74</v>
+        <v>1.36</v>
       </c>
       <c r="Q19">
-        <v>2.09</v>
+        <v>3</v>
       </c>
       <c r="R19">
-        <v>2.57</v>
+        <v>1.73</v>
       </c>
       <c r="S19">
-        <v>1.48</v>
+        <v>2</v>
       </c>
       <c r="T19">
         <v>1.25</v>
       </c>
       <c r="U19">
-        <v>1.41</v>
+        <v>1.29</v>
       </c>
       <c r="V19">
-        <v>1.67</v>
+        <v>1.83</v>
       </c>
       <c r="W19">
-        <v>1.91</v>
+        <v>2.5</v>
       </c>
       <c r="X19">
-        <v>0.55</v>
+        <v>2</v>
       </c>
       <c r="Y19">
-        <v>1.32</v>
+        <v>1.74</v>
       </c>
       <c r="Z19">
-        <v>1.16</v>
+        <v>1.45</v>
       </c>
       <c r="AA19">
-        <v>2.48</v>
+        <v>3.19</v>
       </c>
       <c r="AB19">
-        <v>2.16</v>
+        <v>1.69</v>
       </c>
       <c r="AC19">
         <v>8</v>
       </c>
       <c r="AD19">
-        <v>1.98</v>
+        <v>2.63</v>
       </c>
       <c r="AE19">
-        <v>1.61</v>
+        <v>1.21</v>
       </c>
       <c r="AF19">
-        <v>2.05</v>
+        <v>1.34</v>
       </c>
       <c r="AG19">
-        <v>2.6</v>
+        <v>1.6</v>
       </c>
       <c r="AH19">
-        <v>3.84</v>
+        <v>2.07</v>
       </c>
       <c r="AI19">
-        <v>0</v>
+        <v>2.7</v>
       </c>
     </row>
     <row r="20" spans="1:35">
@@ -2872,7 +2872,7 @@
         <v>65</v>
       </c>
       <c r="D20">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="E20" t="s">
         <v>93</v>
@@ -2881,91 +2881,91 @@
         <v>130</v>
       </c>
       <c r="G20">
-        <v>2.12</v>
+        <v>1.9</v>
       </c>
       <c r="H20">
-        <v>3.38</v>
+        <v>3.35</v>
       </c>
       <c r="I20">
-        <v>3.26</v>
+        <v>4.36</v>
       </c>
       <c r="J20">
-        <v>1.07</v>
+        <v>1.1</v>
       </c>
       <c r="K20">
         <v>6.5</v>
       </c>
       <c r="L20">
-        <v>1.33</v>
+        <v>1.44</v>
       </c>
       <c r="M20">
-        <v>3</v>
+        <v>2.62</v>
       </c>
       <c r="N20">
+        <v>2.2</v>
+      </c>
+      <c r="O20">
+        <v>1.6</v>
+      </c>
+      <c r="P20">
+        <v>1.47</v>
+      </c>
+      <c r="Q20">
+        <v>2.45</v>
+      </c>
+      <c r="R20">
         <v>2.1</v>
       </c>
-      <c r="O20">
-        <v>1.65</v>
-      </c>
-      <c r="P20">
-        <v>1.49</v>
-      </c>
-      <c r="Q20">
-        <v>2.51</v>
-      </c>
-      <c r="R20">
-        <v>1.9</v>
-      </c>
       <c r="S20">
-        <v>1.86</v>
+        <v>1.63</v>
       </c>
       <c r="T20">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="U20">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="V20">
-        <v>1.68</v>
+        <v>1.93</v>
       </c>
       <c r="W20">
-        <v>2.18</v>
+        <v>1.5</v>
       </c>
       <c r="X20">
-        <v>1.55</v>
+        <v>0.63</v>
       </c>
       <c r="Y20">
-        <v>1.54</v>
+        <v>1.44</v>
       </c>
       <c r="Z20">
-        <v>1.37</v>
+        <v>1.14</v>
       </c>
       <c r="AA20">
-        <v>2.91</v>
+        <v>2.58</v>
       </c>
       <c r="AB20">
-        <v>1.41</v>
+        <v>1.7</v>
       </c>
       <c r="AC20">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="AD20">
-        <v>3.49</v>
+        <v>2.7</v>
       </c>
       <c r="AE20">
-        <v>1.28</v>
+        <v>1.17</v>
       </c>
       <c r="AF20">
-        <v>1.5</v>
+        <v>1.3</v>
       </c>
       <c r="AG20">
-        <v>1.93</v>
+        <v>1.63</v>
       </c>
       <c r="AH20">
-        <v>2.5</v>
+        <v>1.97</v>
       </c>
       <c r="AI20">
-        <v>3.45</v>
+        <v>2.45</v>
       </c>
     </row>
     <row r="21" spans="1:35">
@@ -2979,7 +2979,7 @@
         <v>65</v>
       </c>
       <c r="D21">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="E21" t="s">
         <v>94</v>
@@ -2988,96 +2988,96 @@
         <v>131</v>
       </c>
       <c r="G21">
-        <v>1.93</v>
+        <v>2.12</v>
       </c>
       <c r="H21">
-        <v>3.2</v>
+        <v>3.38</v>
       </c>
       <c r="I21">
-        <v>4.33</v>
+        <v>3.26</v>
       </c>
       <c r="J21">
-        <v>1.1</v>
+        <v>1.07</v>
       </c>
       <c r="K21">
         <v>6.5</v>
       </c>
       <c r="L21">
-        <v>1.44</v>
+        <v>1.33</v>
       </c>
       <c r="M21">
-        <v>2.62</v>
+        <v>3</v>
       </c>
       <c r="N21">
-        <v>2.3</v>
+        <v>2.1</v>
       </c>
       <c r="O21">
-        <v>1.56</v>
+        <v>1.65</v>
       </c>
       <c r="P21">
-        <v>1.47</v>
+        <v>1.49</v>
       </c>
       <c r="Q21">
-        <v>2.45</v>
+        <v>2.51</v>
       </c>
       <c r="R21">
-        <v>2.1</v>
+        <v>1.9</v>
       </c>
       <c r="S21">
-        <v>1.63</v>
+        <v>1.86</v>
       </c>
       <c r="T21">
-        <v>1.2</v>
+        <v>1.33</v>
       </c>
       <c r="U21">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="V21">
+        <v>1.68</v>
+      </c>
+      <c r="W21">
+        <v>2.18</v>
+      </c>
+      <c r="X21">
+        <v>1.55</v>
+      </c>
+      <c r="Y21">
+        <v>1.54</v>
+      </c>
+      <c r="Z21">
+        <v>1.37</v>
+      </c>
+      <c r="AA21">
+        <v>2.91</v>
+      </c>
+      <c r="AB21">
+        <v>1.41</v>
+      </c>
+      <c r="AC21">
+        <v>9</v>
+      </c>
+      <c r="AD21">
+        <v>3.49</v>
+      </c>
+      <c r="AE21">
+        <v>1.28</v>
+      </c>
+      <c r="AF21">
+        <v>1.5</v>
+      </c>
+      <c r="AG21">
         <v>1.93</v>
       </c>
-      <c r="W21">
-        <v>1.5</v>
-      </c>
-      <c r="X21">
-        <v>0.63</v>
-      </c>
-      <c r="Y21">
-        <v>1.44</v>
-      </c>
-      <c r="Z21">
-        <v>1.14</v>
-      </c>
-      <c r="AA21">
-        <v>2.58</v>
-      </c>
-      <c r="AB21">
-        <v>1.7</v>
-      </c>
-      <c r="AC21">
-        <v>7</v>
-      </c>
-      <c r="AD21">
-        <v>2.7</v>
-      </c>
-      <c r="AE21">
-        <v>1.17</v>
-      </c>
-      <c r="AF21">
-        <v>1.3</v>
-      </c>
-      <c r="AG21">
-        <v>1.63</v>
-      </c>
       <c r="AH21">
-        <v>1.97</v>
+        <v>2.5</v>
       </c>
       <c r="AI21">
-        <v>2.45</v>
+        <v>3.45</v>
       </c>
     </row>
     <row r="22" spans="1:35">
       <c r="A22" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B22" s="2">
         <v>45121</v>
@@ -3086,7 +3086,7 @@
         <v>65</v>
       </c>
       <c r="D22">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E22" t="s">
         <v>95</v>
@@ -3095,96 +3095,96 @@
         <v>132</v>
       </c>
       <c r="G22">
-        <v>2</v>
+        <v>2.07</v>
       </c>
       <c r="H22">
-        <v>3.05</v>
+        <v>3.28</v>
       </c>
       <c r="I22">
-        <v>3.65</v>
+        <v>3.77</v>
       </c>
       <c r="J22">
-        <v>1.06</v>
+        <v>1.09</v>
       </c>
       <c r="K22">
-        <v>9.300000000000001</v>
+        <v>7</v>
       </c>
       <c r="L22">
-        <v>1.32</v>
+        <v>1.49</v>
       </c>
       <c r="M22">
-        <v>2.92</v>
+        <v>2.45</v>
       </c>
       <c r="N22">
-        <v>2.02</v>
+        <v>2.55</v>
       </c>
       <c r="O22">
-        <v>1.67</v>
+        <v>1.45</v>
       </c>
       <c r="P22">
+        <v>1.55</v>
+      </c>
+      <c r="Q22">
+        <v>2.3</v>
+      </c>
+      <c r="R22">
+        <v>2.15</v>
+      </c>
+      <c r="S22">
+        <v>1.61</v>
+      </c>
+      <c r="T22">
+        <v>1.27</v>
+      </c>
+      <c r="U22">
+        <v>1.36</v>
+      </c>
+      <c r="V22">
+        <v>1.66</v>
+      </c>
+      <c r="W22">
+        <v>1.63</v>
+      </c>
+      <c r="X22">
+        <v>0.71</v>
+      </c>
+      <c r="Y22">
+        <v>1.54</v>
+      </c>
+      <c r="Z22">
         <v>1.45</v>
       </c>
-      <c r="Q22">
-        <v>2.6</v>
-      </c>
-      <c r="R22">
-        <v>1.85</v>
-      </c>
-      <c r="S22">
-        <v>1.85</v>
-      </c>
-      <c r="T22">
-        <v>1.29</v>
-      </c>
-      <c r="U22">
-        <v>1.3</v>
-      </c>
-      <c r="V22">
-        <v>1.55</v>
-      </c>
-      <c r="W22">
-        <v>1.44</v>
-      </c>
-      <c r="X22">
-        <v>0.75</v>
-      </c>
-      <c r="Y22">
-        <v>1.72</v>
-      </c>
-      <c r="Z22">
-        <v>1.23</v>
-      </c>
       <c r="AA22">
-        <v>2.95</v>
+        <v>2.99</v>
       </c>
       <c r="AB22">
-        <v>0</v>
+        <v>1.62</v>
       </c>
       <c r="AC22">
-        <v>0</v>
+        <v>7.5</v>
       </c>
       <c r="AD22">
-        <v>0</v>
+        <v>2.88</v>
       </c>
       <c r="AE22">
-        <v>0</v>
+        <v>1.18</v>
       </c>
       <c r="AF22">
-        <v>0</v>
+        <v>1.31</v>
       </c>
       <c r="AG22">
-        <v>0</v>
+        <v>1.65</v>
       </c>
       <c r="AH22">
-        <v>0</v>
+        <v>2.01</v>
       </c>
       <c r="AI22">
-        <v>0</v>
+        <v>2.4</v>
       </c>
     </row>
     <row r="23" spans="1:35">
       <c r="A23" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B23" s="2">
         <v>45121</v>
@@ -3202,52 +3202,52 @@
         <v>133</v>
       </c>
       <c r="G23">
-        <v>1.97</v>
+        <v>2</v>
       </c>
       <c r="H23">
-        <v>3.3</v>
+        <v>3</v>
       </c>
       <c r="I23">
-        <v>3.7</v>
+        <v>3.8</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>1.06</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>8.5</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>1.33</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N23">
-        <v>2.02</v>
+        <v>1.85</v>
       </c>
       <c r="O23">
-        <v>1.77</v>
+        <v>1.85</v>
       </c>
       <c r="P23">
-        <v>0</v>
+        <v>1.43</v>
       </c>
       <c r="Q23">
-        <v>0</v>
+        <v>2.63</v>
       </c>
       <c r="R23">
-        <v>0</v>
+        <v>1.85</v>
       </c>
       <c r="S23">
-        <v>0</v>
+        <v>1.85</v>
       </c>
       <c r="T23">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="U23">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="V23">
-        <v>0</v>
+        <v>1.78</v>
       </c>
       <c r="W23">
         <v>1.13</v>
@@ -3277,7 +3277,7 @@
         <v>0</v>
       </c>
       <c r="AF23">
-        <v>0</v>
+        <v>1.85</v>
       </c>
       <c r="AG23">
         <v>0</v>
@@ -3291,7 +3291,7 @@
     </row>
     <row r="24" spans="1:35">
       <c r="A24" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B24" s="2">
         <v>45121</v>
@@ -3398,16 +3398,16 @@
     </row>
     <row r="25" spans="1:35">
       <c r="A25" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B25" s="2">
         <v>45121</v>
       </c>
       <c r="C25" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D25">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="E25" t="s">
         <v>98</v>
@@ -3416,91 +3416,91 @@
         <v>135</v>
       </c>
       <c r="G25">
-        <v>2.2</v>
+        <v>1.86</v>
       </c>
       <c r="H25">
-        <v>3.03</v>
+        <v>3.2</v>
       </c>
       <c r="I25">
-        <v>3.86</v>
+        <v>3.7</v>
       </c>
       <c r="J25">
-        <v>1.09</v>
+        <v>1.07</v>
       </c>
       <c r="K25">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="L25">
-        <v>1.49</v>
+        <v>1.36</v>
       </c>
       <c r="M25">
-        <v>2.45</v>
+        <v>3</v>
       </c>
       <c r="N25">
-        <v>2.3</v>
+        <v>2.17</v>
       </c>
       <c r="O25">
-        <v>1.5</v>
+        <v>1.65</v>
       </c>
       <c r="P25">
-        <v>1.55</v>
+        <v>1.4</v>
       </c>
       <c r="Q25">
-        <v>2.3</v>
+        <v>2.75</v>
       </c>
       <c r="R25">
-        <v>2.15</v>
+        <v>1.91</v>
       </c>
       <c r="S25">
-        <v>1.61</v>
+        <v>1.8</v>
       </c>
       <c r="T25">
-        <v>1.27</v>
+        <v>1.2</v>
       </c>
       <c r="U25">
-        <v>1.36</v>
+        <v>1.3</v>
       </c>
       <c r="V25">
-        <v>1.66</v>
+        <v>1.85</v>
       </c>
       <c r="W25">
-        <v>1.63</v>
+        <v>1.7</v>
       </c>
       <c r="X25">
-        <v>0.71</v>
+        <v>0.64</v>
       </c>
       <c r="Y25">
-        <v>1.54</v>
+        <v>1.92</v>
       </c>
       <c r="Z25">
-        <v>1.45</v>
+        <v>1.06</v>
       </c>
       <c r="AA25">
-        <v>2.99</v>
+        <v>2.98</v>
       </c>
       <c r="AB25">
-        <v>1.62</v>
+        <v>1.7</v>
       </c>
       <c r="AC25">
-        <v>7.5</v>
+        <v>8.4</v>
       </c>
       <c r="AD25">
-        <v>2.88</v>
+        <v>2.55</v>
       </c>
       <c r="AE25">
-        <v>1.18</v>
+        <v>1.23</v>
       </c>
       <c r="AF25">
-        <v>1.31</v>
+        <v>1.41</v>
       </c>
       <c r="AG25">
-        <v>1.65</v>
+        <v>1.8</v>
       </c>
       <c r="AH25">
-        <v>2.01</v>
+        <v>2.22</v>
       </c>
       <c r="AI25">
-        <v>2.4</v>
+        <v>2.9</v>
       </c>
     </row>
     <row r="26" spans="1:35">
@@ -3511,10 +3511,10 @@
         <v>45121</v>
       </c>
       <c r="C26" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D26">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="E26" t="s">
         <v>99</v>
@@ -3523,96 +3523,96 @@
         <v>136</v>
       </c>
       <c r="G26">
-        <v>1.74</v>
+        <v>1.96</v>
       </c>
       <c r="H26">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="I26">
-        <v>3.85</v>
+        <v>3.35</v>
       </c>
       <c r="J26">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="K26">
-        <v>7.5</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="L26">
-        <v>1.36</v>
+        <v>1.32</v>
       </c>
       <c r="M26">
-        <v>3</v>
+        <v>2.92</v>
       </c>
       <c r="N26">
-        <v>2.15</v>
+        <v>2.09</v>
       </c>
       <c r="O26">
-        <v>1.62</v>
+        <v>1.72</v>
       </c>
       <c r="P26">
-        <v>1.4</v>
+        <v>1.45</v>
       </c>
       <c r="Q26">
-        <v>2.75</v>
+        <v>2.6</v>
       </c>
       <c r="R26">
-        <v>1.91</v>
+        <v>1.85</v>
       </c>
       <c r="S26">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="T26">
-        <v>1.2</v>
+        <v>1.29</v>
       </c>
       <c r="U26">
         <v>1.3</v>
       </c>
       <c r="V26">
-        <v>1.85</v>
+        <v>1.55</v>
       </c>
       <c r="W26">
-        <v>1.7</v>
+        <v>1.44</v>
       </c>
       <c r="X26">
-        <v>0.64</v>
+        <v>0.75</v>
       </c>
       <c r="Y26">
-        <v>1.92</v>
+        <v>1.72</v>
       </c>
       <c r="Z26">
-        <v>1.06</v>
+        <v>1.23</v>
       </c>
       <c r="AA26">
-        <v>2.98</v>
+        <v>2.95</v>
       </c>
       <c r="AB26">
-        <v>1.7</v>
+        <v>0</v>
       </c>
       <c r="AC26">
-        <v>8.4</v>
+        <v>0</v>
       </c>
       <c r="AD26">
-        <v>2.55</v>
+        <v>0</v>
       </c>
       <c r="AE26">
-        <v>1.23</v>
+        <v>0</v>
       </c>
       <c r="AF26">
-        <v>1.41</v>
+        <v>0</v>
       </c>
       <c r="AG26">
-        <v>1.8</v>
+        <v>0</v>
       </c>
       <c r="AH26">
-        <v>2.22</v>
+        <v>1.75</v>
       </c>
       <c r="AI26">
-        <v>2.9</v>
+        <v>2.14</v>
       </c>
     </row>
     <row r="27" spans="1:35">
       <c r="A27" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B27" s="2">
         <v>45121</v>
@@ -3621,7 +3621,7 @@
         <v>67</v>
       </c>
       <c r="D27">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="E27" t="s">
         <v>100</v>
@@ -3630,85 +3630,85 @@
         <v>137</v>
       </c>
       <c r="G27">
-        <v>3.2</v>
+        <v>2.05</v>
       </c>
       <c r="H27">
         <v>3.2</v>
       </c>
       <c r="I27">
-        <v>2.03</v>
+        <v>3.2</v>
       </c>
       <c r="J27">
-        <v>0</v>
+        <v>1.05</v>
       </c>
       <c r="K27">
-        <v>0</v>
+        <v>10.5</v>
       </c>
       <c r="L27">
-        <v>0</v>
+        <v>1.28</v>
       </c>
       <c r="M27">
-        <v>0</v>
+        <v>3.25</v>
       </c>
       <c r="N27">
-        <v>1.79</v>
+        <v>1.83</v>
       </c>
       <c r="O27">
-        <v>1.79</v>
+        <v>1.8</v>
       </c>
       <c r="P27">
         <v>1.4</v>
       </c>
       <c r="Q27">
-        <v>2.75</v>
+        <v>2.7</v>
       </c>
       <c r="R27">
-        <v>1.91</v>
+        <v>1.75</v>
       </c>
       <c r="S27">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="T27">
-        <v>0</v>
+        <v>1.29</v>
       </c>
       <c r="U27">
-        <v>0</v>
+        <v>1.29</v>
       </c>
       <c r="V27">
-        <v>0</v>
+        <v>1.6</v>
       </c>
       <c r="W27">
-        <v>1</v>
+        <v>2.38</v>
       </c>
       <c r="X27">
+        <v>1.44</v>
+      </c>
+      <c r="Y27">
+        <v>1.68</v>
+      </c>
+      <c r="Z27">
+        <v>1.52</v>
+      </c>
+      <c r="AA27">
+        <v>3.2</v>
+      </c>
+      <c r="AB27">
+        <v>0</v>
+      </c>
+      <c r="AC27">
+        <v>0</v>
+      </c>
+      <c r="AD27">
+        <v>0</v>
+      </c>
+      <c r="AE27">
+        <v>0</v>
+      </c>
+      <c r="AF27">
+        <v>0</v>
+      </c>
+      <c r="AG27">
         <v>2</v>
-      </c>
-      <c r="Y27">
-        <v>1.44</v>
-      </c>
-      <c r="Z27">
-        <v>1.47</v>
-      </c>
-      <c r="AA27">
-        <v>2.91</v>
-      </c>
-      <c r="AB27">
-        <v>0</v>
-      </c>
-      <c r="AC27">
-        <v>0</v>
-      </c>
-      <c r="AD27">
-        <v>0</v>
-      </c>
-      <c r="AE27">
-        <v>0</v>
-      </c>
-      <c r="AF27">
-        <v>0</v>
-      </c>
-      <c r="AG27">
-        <v>0</v>
       </c>
       <c r="AH27">
         <v>0</v>
@@ -3719,16 +3719,16 @@
     </row>
     <row r="28" spans="1:35">
       <c r="A28" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="B28" s="2">
         <v>45121</v>
       </c>
       <c r="C28" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D28">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="E28" t="s">
         <v>101</v>
@@ -3737,88 +3737,88 @@
         <v>138</v>
       </c>
       <c r="G28">
-        <v>1.93</v>
+        <v>3.1</v>
       </c>
       <c r="H28">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="I28">
-        <v>3.6</v>
+        <v>2.1</v>
       </c>
       <c r="J28">
-        <v>1.12</v>
+        <v>1.03</v>
       </c>
       <c r="K28">
-        <v>6.46</v>
+        <v>12</v>
       </c>
       <c r="L28">
-        <v>1.53</v>
+        <v>1.25</v>
       </c>
       <c r="M28">
-        <v>2.3</v>
+        <v>3.55</v>
       </c>
       <c r="N28">
-        <v>2.6</v>
+        <v>1.8</v>
       </c>
       <c r="O28">
+        <v>1.83</v>
+      </c>
+      <c r="P28">
+        <v>1.4</v>
+      </c>
+      <c r="Q28">
+        <v>2.75</v>
+      </c>
+      <c r="R28">
+        <v>1.91</v>
+      </c>
+      <c r="S28">
+        <v>1.8</v>
+      </c>
+      <c r="T28">
+        <v>1.6</v>
+      </c>
+      <c r="U28">
+        <v>1.25</v>
+      </c>
+      <c r="V28">
+        <v>1.25</v>
+      </c>
+      <c r="W28">
+        <v>1</v>
+      </c>
+      <c r="X28">
+        <v>2</v>
+      </c>
+      <c r="Y28">
         <v>1.44</v>
       </c>
-      <c r="P28">
-        <v>1.58</v>
-      </c>
-      <c r="Q28">
-        <v>2.25</v>
-      </c>
-      <c r="R28">
-        <v>2.27</v>
-      </c>
-      <c r="S28">
-        <v>1.6</v>
-      </c>
-      <c r="T28">
-        <v>1.22</v>
-      </c>
-      <c r="U28">
-        <v>1.34</v>
-      </c>
-      <c r="V28">
+      <c r="Z28">
+        <v>1.47</v>
+      </c>
+      <c r="AA28">
+        <v>2.91</v>
+      </c>
+      <c r="AB28">
+        <v>2.21</v>
+      </c>
+      <c r="AC28">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="AD28">
         <v>1.84</v>
       </c>
-      <c r="W28">
-        <v>1.18</v>
-      </c>
-      <c r="X28">
-        <v>0.55</v>
-      </c>
-      <c r="Y28">
-        <v>1.33</v>
-      </c>
-      <c r="Z28">
-        <v>1.1</v>
-      </c>
-      <c r="AA28">
-        <v>2.43</v>
-      </c>
-      <c r="AB28">
-        <v>1.59</v>
-      </c>
-      <c r="AC28">
-        <v>8.6</v>
-      </c>
-      <c r="AD28">
-        <v>2.94</v>
-      </c>
       <c r="AE28">
-        <v>1.55</v>
+        <v>1.37</v>
       </c>
       <c r="AF28">
-        <v>1.92</v>
+        <v>1.65</v>
       </c>
       <c r="AG28">
-        <v>2.43</v>
+        <v>2.12</v>
       </c>
       <c r="AH28">
-        <v>3.34</v>
+        <v>2.85</v>
       </c>
       <c r="AI28">
         <v>0</v>
@@ -3826,13 +3826,13 @@
     </row>
     <row r="29" spans="1:35">
       <c r="A29" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="B29" s="2">
         <v>45121</v>
       </c>
       <c r="C29" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D29">
         <v>25</v>
@@ -3844,105 +3844,105 @@
         <v>139</v>
       </c>
       <c r="G29">
-        <v>1.38</v>
+        <v>1.91</v>
       </c>
       <c r="H29">
+        <v>2.87</v>
+      </c>
+      <c r="I29">
         <v>4</v>
       </c>
-      <c r="I29">
-        <v>6.9</v>
-      </c>
       <c r="J29">
-        <v>1.04</v>
+        <v>1.12</v>
       </c>
       <c r="K29">
-        <v>7.7</v>
+        <v>6.46</v>
       </c>
       <c r="L29">
-        <v>1.36</v>
+        <v>1.53</v>
       </c>
       <c r="M29">
-        <v>2.82</v>
+        <v>2.25</v>
       </c>
       <c r="N29">
-        <v>2.15</v>
+        <v>2.6</v>
       </c>
       <c r="O29">
-        <v>1.61</v>
+        <v>1.45</v>
       </c>
       <c r="P29">
-        <v>1.47</v>
+        <v>1.58</v>
       </c>
       <c r="Q29">
-        <v>2.67</v>
+        <v>2.25</v>
       </c>
       <c r="R29">
-        <v>2.38</v>
+        <v>2.27</v>
       </c>
       <c r="S29">
-        <v>1.54</v>
+        <v>1.6</v>
       </c>
       <c r="T29">
-        <v>1.08</v>
+        <v>1.22</v>
       </c>
       <c r="U29">
-        <v>1.23</v>
+        <v>1.34</v>
       </c>
       <c r="V29">
-        <v>2.66</v>
+        <v>1.84</v>
       </c>
       <c r="W29">
-        <v>2.18</v>
+        <v>1.18</v>
       </c>
       <c r="X29">
-        <v>0.45</v>
+        <v>0.55</v>
       </c>
       <c r="Y29">
-        <v>1.4</v>
+        <v>1.33</v>
       </c>
       <c r="Z29">
-        <v>1.03</v>
+        <v>1.1</v>
       </c>
       <c r="AA29">
         <v>2.43</v>
       </c>
       <c r="AB29">
-        <v>1.33</v>
+        <v>1.59</v>
       </c>
       <c r="AC29">
-        <v>9.699999999999999</v>
+        <v>8.6</v>
       </c>
       <c r="AD29">
-        <v>4.2</v>
+        <v>2.94</v>
       </c>
       <c r="AE29">
-        <v>1.48</v>
+        <v>1.55</v>
       </c>
       <c r="AF29">
-        <v>1.8</v>
+        <v>1.92</v>
       </c>
       <c r="AG29">
-        <v>2.26</v>
+        <v>2.43</v>
       </c>
       <c r="AH29">
-        <v>3.15</v>
+        <v>3.34</v>
       </c>
       <c r="AI29">
-        <v>0</v>
+        <v>5.2</v>
       </c>
     </row>
     <row r="30" spans="1:35">
       <c r="A30" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="B30" s="2">
         <v>45121</v>
       </c>
       <c r="C30" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D30">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="E30" t="s">
         <v>103</v>
@@ -3951,105 +3951,105 @@
         <v>140</v>
       </c>
       <c r="G30">
-        <v>3.08</v>
+        <v>1.4</v>
       </c>
       <c r="H30">
-        <v>2.86</v>
+        <v>3.8</v>
       </c>
       <c r="I30">
-        <v>2.32</v>
+        <v>8</v>
       </c>
       <c r="J30">
+        <v>1.04</v>
+      </c>
+      <c r="K30">
+        <v>7.7</v>
+      </c>
+      <c r="L30">
+        <v>1.36</v>
+      </c>
+      <c r="M30">
+        <v>2.82</v>
+      </c>
+      <c r="N30">
+        <v>2.1</v>
+      </c>
+      <c r="O30">
+        <v>1.6</v>
+      </c>
+      <c r="P30">
+        <v>1.47</v>
+      </c>
+      <c r="Q30">
+        <v>2.67</v>
+      </c>
+      <c r="R30">
+        <v>2.38</v>
+      </c>
+      <c r="S30">
+        <v>1.54</v>
+      </c>
+      <c r="T30">
         <v>1.08</v>
       </c>
-      <c r="K30">
-        <v>7.85</v>
-      </c>
-      <c r="L30">
-        <v>1.42</v>
-      </c>
-      <c r="M30">
-        <v>2.67</v>
-      </c>
-      <c r="N30">
-        <v>2.25</v>
-      </c>
-      <c r="O30">
-        <v>1.57</v>
-      </c>
-      <c r="P30">
-        <v>1.52</v>
-      </c>
-      <c r="Q30">
-        <v>2.4</v>
-      </c>
-      <c r="R30">
-        <v>2</v>
-      </c>
-      <c r="S30">
-        <v>1.75</v>
-      </c>
-      <c r="T30">
-        <v>1.58</v>
-      </c>
       <c r="U30">
-        <v>1.35</v>
+        <v>1.23</v>
       </c>
       <c r="V30">
-        <v>1.3</v>
+        <v>2.66</v>
       </c>
       <c r="W30">
-        <v>1.14</v>
+        <v>2.18</v>
       </c>
       <c r="X30">
-        <v>0.63</v>
+        <v>0.45</v>
       </c>
       <c r="Y30">
-        <v>1.17</v>
+        <v>1.4</v>
       </c>
       <c r="Z30">
-        <v>1.46</v>
+        <v>1.03</v>
       </c>
       <c r="AA30">
-        <v>2.63</v>
+        <v>2.43</v>
       </c>
       <c r="AB30">
-        <v>0</v>
+        <v>1.33</v>
       </c>
       <c r="AC30">
-        <v>0</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="AD30">
-        <v>0</v>
+        <v>4.2</v>
       </c>
       <c r="AE30">
-        <v>0</v>
+        <v>1.48</v>
       </c>
       <c r="AF30">
-        <v>0</v>
+        <v>1.8</v>
       </c>
       <c r="AG30">
-        <v>0</v>
+        <v>2.26</v>
       </c>
       <c r="AH30">
-        <v>0</v>
+        <v>3.15</v>
       </c>
       <c r="AI30">
-        <v>0</v>
+        <v>4.9</v>
       </c>
     </row>
     <row r="31" spans="1:35">
       <c r="A31" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B31" s="2">
         <v>45121</v>
       </c>
       <c r="C31" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D31">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E31" t="s">
         <v>104</v>
@@ -4058,96 +4058,96 @@
         <v>141</v>
       </c>
       <c r="G31">
-        <v>2.68</v>
+        <v>3.1</v>
       </c>
       <c r="H31">
-        <v>2.93</v>
+        <v>3</v>
       </c>
       <c r="I31">
-        <v>2.9</v>
+        <v>2.15</v>
       </c>
       <c r="J31">
-        <v>1.1</v>
+        <v>1.08</v>
       </c>
       <c r="K31">
-        <v>6.5</v>
+        <v>7.85</v>
       </c>
       <c r="L31">
         <v>1.42</v>
       </c>
       <c r="M31">
-        <v>2.7</v>
+        <v>2.67</v>
       </c>
       <c r="N31">
-        <v>2.28</v>
+        <v>2.15</v>
       </c>
       <c r="O31">
-        <v>1.56</v>
+        <v>1.57</v>
       </c>
       <c r="P31">
-        <v>1.51</v>
+        <v>1.52</v>
       </c>
       <c r="Q31">
-        <v>2.35</v>
+        <v>2.4</v>
       </c>
       <c r="R31">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="S31">
-        <v>1.71</v>
+        <v>1.75</v>
       </c>
       <c r="T31">
-        <v>1.39</v>
+        <v>1.58</v>
       </c>
       <c r="U31">
-        <v>1.36</v>
+        <v>1.35</v>
       </c>
       <c r="V31">
-        <v>1.5</v>
+        <v>1.3</v>
       </c>
       <c r="W31">
-        <v>1.88</v>
+        <v>1.14</v>
       </c>
       <c r="X31">
-        <v>1</v>
+        <v>0.63</v>
       </c>
       <c r="Y31">
-        <v>1.78</v>
+        <v>1.17</v>
       </c>
       <c r="Z31">
-        <v>1.25</v>
+        <v>1.46</v>
       </c>
       <c r="AA31">
-        <v>3.03</v>
+        <v>2.63</v>
       </c>
       <c r="AB31">
-        <v>1.7</v>
+        <v>0</v>
       </c>
       <c r="AC31">
-        <v>7.5</v>
+        <v>0</v>
       </c>
       <c r="AD31">
-        <v>2.63</v>
+        <v>0</v>
       </c>
       <c r="AE31">
         <v>0</v>
       </c>
       <c r="AF31">
-        <v>1.19</v>
+        <v>0</v>
       </c>
       <c r="AG31">
-        <v>1.32</v>
+        <v>0</v>
       </c>
       <c r="AH31">
-        <v>1.65</v>
+        <v>0</v>
       </c>
       <c r="AI31">
-        <v>1.99</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:35">
       <c r="A32" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B32" s="2">
         <v>45121</v>
@@ -4254,7 +4254,7 @@
     </row>
     <row r="33" spans="1:35">
       <c r="A33" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B33" s="2">
         <v>45121</v>
@@ -4263,7 +4263,7 @@
         <v>71</v>
       </c>
       <c r="D33">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E33" t="s">
         <v>106</v>
@@ -4272,96 +4272,96 @@
         <v>143</v>
       </c>
       <c r="G33">
-        <v>2.07</v>
+        <v>2.45</v>
       </c>
       <c r="H33">
-        <v>3.3</v>
+        <v>2.9</v>
       </c>
       <c r="I33">
-        <v>3.27</v>
+        <v>2.8</v>
       </c>
       <c r="J33">
-        <v>1.05</v>
+        <v>1.1</v>
       </c>
       <c r="K33">
-        <v>10.5</v>
+        <v>6.5</v>
       </c>
       <c r="L33">
-        <v>1.28</v>
+        <v>1.53</v>
       </c>
       <c r="M33">
-        <v>3.25</v>
+        <v>2.45</v>
       </c>
       <c r="N33">
-        <v>1.89</v>
+        <v>2.25</v>
       </c>
       <c r="O33">
-        <v>1.86</v>
+        <v>1.53</v>
       </c>
       <c r="P33">
-        <v>1.4</v>
+        <v>1.51</v>
       </c>
       <c r="Q33">
-        <v>2.7</v>
+        <v>2.35</v>
       </c>
       <c r="R33">
-        <v>1.75</v>
+        <v>1.98</v>
       </c>
       <c r="S33">
-        <v>1.95</v>
+        <v>1.71</v>
       </c>
       <c r="T33">
-        <v>1.29</v>
+        <v>1.39</v>
       </c>
       <c r="U33">
-        <v>1.29</v>
+        <v>1.36</v>
       </c>
       <c r="V33">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="W33">
-        <v>2.38</v>
+        <v>1.88</v>
       </c>
       <c r="X33">
-        <v>1.44</v>
+        <v>1</v>
       </c>
       <c r="Y33">
-        <v>1.68</v>
+        <v>1.78</v>
       </c>
       <c r="Z33">
-        <v>1.52</v>
+        <v>1.25</v>
       </c>
       <c r="AA33">
-        <v>3.2</v>
+        <v>3.03</v>
       </c>
       <c r="AB33">
-        <v>0</v>
+        <v>1.7</v>
       </c>
       <c r="AC33">
-        <v>0</v>
+        <v>7.5</v>
       </c>
       <c r="AD33">
-        <v>0</v>
+        <v>2.63</v>
       </c>
       <c r="AE33">
         <v>0</v>
       </c>
       <c r="AF33">
-        <v>0</v>
+        <v>1.19</v>
       </c>
       <c r="AG33">
-        <v>0</v>
+        <v>1.32</v>
       </c>
       <c r="AH33">
-        <v>0</v>
+        <v>1.65</v>
       </c>
       <c r="AI33">
-        <v>0</v>
+        <v>1.99</v>
       </c>
     </row>
     <row r="34" spans="1:35">
       <c r="A34" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B34" s="2">
         <v>45121</v>
@@ -4379,13 +4379,13 @@
         <v>144</v>
       </c>
       <c r="G34">
-        <v>1.88</v>
+        <v>2.2</v>
       </c>
       <c r="H34">
-        <v>3.1</v>
+        <v>2.9</v>
       </c>
       <c r="I34">
-        <v>4.05</v>
+        <v>3.3</v>
       </c>
       <c r="J34">
         <v>1.11</v>
@@ -4400,10 +4400,10 @@
         <v>2.5</v>
       </c>
       <c r="N34">
-        <v>2.37</v>
+        <v>2.3</v>
       </c>
       <c r="O34">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="P34">
         <v>1.53</v>
@@ -4486,13 +4486,13 @@
         <v>145</v>
       </c>
       <c r="G35">
-        <v>2.08</v>
+        <v>2</v>
       </c>
       <c r="H35">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="I35">
-        <v>3.9</v>
+        <v>3.4</v>
       </c>
       <c r="J35">
         <v>1.03</v>
@@ -4507,10 +4507,10 @@
         <v>3.04</v>
       </c>
       <c r="N35">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="O35">
-        <v>1.78</v>
+        <v>1.67</v>
       </c>
       <c r="P35">
         <v>1.43</v>
@@ -4575,7 +4575,7 @@
     </row>
     <row r="36" spans="1:35">
       <c r="A36" t="s">
-        <v>35</v>
+        <v>53</v>
       </c>
       <c r="B36" s="2">
         <v>45121</v>
@@ -4584,7 +4584,7 @@
         <v>73</v>
       </c>
       <c r="D36">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E36" t="s">
         <v>109</v>
@@ -4593,96 +4593,96 @@
         <v>146</v>
       </c>
       <c r="G36">
-        <v>4.5</v>
+        <v>1.83</v>
       </c>
       <c r="H36">
-        <v>4</v>
+        <v>3.3</v>
       </c>
       <c r="I36">
-        <v>1.7</v>
+        <v>3.75</v>
       </c>
       <c r="J36">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="K36">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="L36">
-        <v>1.22</v>
+        <v>1.29</v>
       </c>
       <c r="M36">
-        <v>4.2</v>
+        <v>3.5</v>
       </c>
       <c r="N36">
-        <v>1.7</v>
+        <v>1.75</v>
       </c>
       <c r="O36">
-        <v>2.15</v>
+        <v>1.87</v>
       </c>
       <c r="P36">
+        <v>1.36</v>
+      </c>
+      <c r="Q36">
+        <v>3</v>
+      </c>
+      <c r="R36">
+        <v>1.73</v>
+      </c>
+      <c r="S36">
+        <v>2</v>
+      </c>
+      <c r="T36">
+        <v>1.25</v>
+      </c>
+      <c r="U36">
         <v>1.29</v>
       </c>
-      <c r="Q36">
-        <v>3.3</v>
-      </c>
-      <c r="R36">
-        <v>1.7</v>
-      </c>
-      <c r="S36">
-        <v>2.1</v>
-      </c>
-      <c r="T36">
-        <v>2.2</v>
-      </c>
-      <c r="U36">
-        <v>1.18</v>
-      </c>
       <c r="V36">
-        <v>1.18</v>
+        <v>1.8</v>
       </c>
       <c r="W36">
-        <v>1</v>
+        <v>2.11</v>
       </c>
       <c r="X36">
-        <v>1</v>
+        <v>1.3</v>
       </c>
       <c r="Y36">
-        <v>1.24</v>
+        <v>1.52</v>
       </c>
       <c r="Z36">
-        <v>1.42</v>
+        <v>1.47</v>
       </c>
       <c r="AA36">
-        <v>2.66</v>
+        <v>2.99</v>
       </c>
       <c r="AB36">
-        <v>2.91</v>
+        <v>1.81</v>
       </c>
       <c r="AC36">
-        <v>8.5</v>
+        <v>8.6</v>
       </c>
       <c r="AD36">
-        <v>1.55</v>
+        <v>2.23</v>
       </c>
       <c r="AE36">
-        <v>1.24</v>
+        <v>1.25</v>
       </c>
       <c r="AF36">
-        <v>1.54</v>
+        <v>1.53</v>
       </c>
       <c r="AG36">
-        <v>1.85</v>
+        <v>1.87</v>
       </c>
       <c r="AH36">
-        <v>2.31</v>
+        <v>2.33</v>
       </c>
       <c r="AI36">
-        <v>3.08</v>
+        <v>3.18</v>
       </c>
     </row>
     <row r="37" spans="1:35">
       <c r="A37" t="s">
-        <v>53</v>
+        <v>35</v>
       </c>
       <c r="B37" s="2">
         <v>45121</v>
@@ -4691,7 +4691,7 @@
         <v>73</v>
       </c>
       <c r="D37">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E37" t="s">
         <v>110</v>
@@ -4700,96 +4700,96 @@
         <v>147</v>
       </c>
       <c r="G37">
-        <v>1.95</v>
+        <v>4.5</v>
       </c>
       <c r="H37">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="I37">
-        <v>3.29</v>
+        <v>1.7</v>
       </c>
       <c r="J37">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="K37">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="L37">
+        <v>1.22</v>
+      </c>
+      <c r="M37">
+        <v>4.2</v>
+      </c>
+      <c r="N37">
+        <v>1.7</v>
+      </c>
+      <c r="O37">
+        <v>2.15</v>
+      </c>
+      <c r="P37">
         <v>1.29</v>
       </c>
-      <c r="M37">
-        <v>3.5</v>
-      </c>
-      <c r="N37">
-        <v>1.8</v>
-      </c>
-      <c r="O37">
-        <v>1.91</v>
-      </c>
-      <c r="P37">
-        <v>1.36</v>
-      </c>
       <c r="Q37">
-        <v>3</v>
+        <v>3.3</v>
       </c>
       <c r="R37">
-        <v>1.73</v>
+        <v>1.7</v>
       </c>
       <c r="S37">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="T37">
-        <v>1.25</v>
+        <v>2.2</v>
       </c>
       <c r="U37">
-        <v>1.29</v>
+        <v>1.18</v>
       </c>
       <c r="V37">
-        <v>1.8</v>
+        <v>1.18</v>
       </c>
       <c r="W37">
-        <v>2.11</v>
+        <v>1</v>
       </c>
       <c r="X37">
-        <v>1.3</v>
+        <v>1</v>
       </c>
       <c r="Y37">
-        <v>1.52</v>
+        <v>1.24</v>
       </c>
       <c r="Z37">
-        <v>1.47</v>
+        <v>1.42</v>
       </c>
       <c r="AA37">
-        <v>2.99</v>
+        <v>2.66</v>
       </c>
       <c r="AB37">
-        <v>0</v>
+        <v>2.91</v>
       </c>
       <c r="AC37">
-        <v>0</v>
+        <v>8.5</v>
       </c>
       <c r="AD37">
-        <v>0</v>
+        <v>1.55</v>
       </c>
       <c r="AE37">
-        <v>0</v>
+        <v>1.24</v>
       </c>
       <c r="AF37">
-        <v>0</v>
+        <v>1.54</v>
       </c>
       <c r="AG37">
-        <v>0</v>
+        <v>1.85</v>
       </c>
       <c r="AH37">
-        <v>0</v>
+        <v>2.31</v>
       </c>
       <c r="AI37">
-        <v>0</v>
+        <v>3.08</v>
       </c>
     </row>
     <row r="38" spans="1:35">
       <c r="A38" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B38" s="2">
         <v>45121</v>
@@ -4807,13 +4807,13 @@
         <v>148</v>
       </c>
       <c r="G38">
-        <v>1.19</v>
+        <v>1.2</v>
       </c>
       <c r="H38">
-        <v>6.24</v>
+        <v>5.75</v>
       </c>
       <c r="I38">
-        <v>10.35</v>
+        <v>13</v>
       </c>
       <c r="J38">
         <v>1.01</v>
